--- a/docs/vitivinicola.xlsx
+++ b/docs/vitivinicola.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbalbontingumucio/Desktop/2020-1/CAPSTONE/Proyecto/vitivinicola/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolina Stuardo\Desktop\Capstone\vitivinicola\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A785E6C-DB36-2B46-BA5A-F594AF8C0AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5218B-161C-447B-B123-0BF5634B3D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lotes" sheetId="1" r:id="rId1"/>
     <sheet name="uvas" sheetId="2" r:id="rId2"/>
-    <sheet name="recetas" sheetId="3" r:id="rId3"/>
-    <sheet name="vinos" sheetId="4" r:id="rId4"/>
+    <sheet name="vinos" sheetId="4" r:id="rId3"/>
+    <sheet name="recetas" sheetId="3" r:id="rId4"/>
+    <sheet name="estanques" sheetId="5" r:id="rId5"/>
+    <sheet name="procesamiento" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="351">
   <si>
     <t>Tipo UVA</t>
   </si>
@@ -1022,13 +1024,67 @@
   </si>
   <si>
     <t>volumen</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>cap (m3)</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t># eq</t>
+  </si>
+  <si>
+    <t>kg o lt /h</t>
+  </si>
+  <si>
+    <t>kg total</t>
+  </si>
+  <si>
+    <t>merma (%/feed)</t>
+  </si>
+  <si>
+    <t>corriente</t>
+  </si>
+  <si>
+    <t>Molienda</t>
+  </si>
+  <si>
+    <t>Prensado</t>
+  </si>
+  <si>
+    <t>Clarificacion</t>
+  </si>
+  <si>
+    <t>Fermentacion</t>
+  </si>
+  <si>
+    <t>Mezcla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1229,27 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1520,7 +1597,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1551,6 +1628,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1908,18 +2007,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="H291" sqref="A1:H291"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +2044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +2070,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1997,7 +2096,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2122,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2148,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2174,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2200,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2226,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +2252,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2179,7 +2278,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2205,7 +2304,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -2231,7 +2330,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
@@ -2257,7 +2356,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
@@ -2283,7 +2382,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
@@ -2309,7 +2408,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
@@ -2335,7 +2434,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2460,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -2387,7 +2486,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -2413,7 +2512,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
@@ -2439,7 +2538,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2564,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -2491,7 +2590,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -2517,7 +2616,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2543,7 +2642,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2668,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
@@ -2595,7 +2694,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2720,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>41</v>
       </c>
@@ -2647,7 +2746,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>43</v>
       </c>
@@ -2673,7 +2772,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2798,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>45</v>
       </c>
@@ -2725,7 +2824,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2850,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>47</v>
       </c>
@@ -2777,7 +2876,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>48</v>
       </c>
@@ -2803,7 +2902,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +2928,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
@@ -2855,7 +2954,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>51</v>
       </c>
@@ -2881,7 +2980,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>52</v>
       </c>
@@ -2907,7 +3006,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +3032,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +3058,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>55</v>
       </c>
@@ -2985,7 +3084,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3110,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>57</v>
       </c>
@@ -3037,7 +3136,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>58</v>
       </c>
@@ -3063,7 +3162,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
@@ -3089,7 +3188,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>60</v>
       </c>
@@ -3115,7 +3214,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>61</v>
       </c>
@@ -3141,7 +3240,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>62</v>
       </c>
@@ -3167,7 +3266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>63</v>
       </c>
@@ -3193,7 +3292,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>64</v>
       </c>
@@ -3219,7 +3318,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -3245,7 +3344,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>66</v>
       </c>
@@ -3271,7 +3370,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>67</v>
       </c>
@@ -3297,7 +3396,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>68</v>
       </c>
@@ -3323,7 +3422,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3448,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>70</v>
       </c>
@@ -3375,7 +3474,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>71</v>
       </c>
@@ -3401,7 +3500,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>72</v>
       </c>
@@ -3427,7 +3526,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>73</v>
       </c>
@@ -3453,7 +3552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -3479,7 +3578,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>75</v>
       </c>
@@ -3505,7 +3604,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
@@ -3531,7 +3630,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
@@ -3557,7 +3656,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>78</v>
       </c>
@@ -3583,7 +3682,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>79</v>
       </c>
@@ -3609,7 +3708,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>80</v>
       </c>
@@ -3635,7 +3734,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>81</v>
       </c>
@@ -3661,7 +3760,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>82</v>
       </c>
@@ -3687,7 +3786,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>83</v>
       </c>
@@ -3713,7 +3812,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>84</v>
       </c>
@@ -3739,7 +3838,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>85</v>
       </c>
@@ -3765,7 +3864,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>86</v>
       </c>
@@ -3791,7 +3890,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>87</v>
       </c>
@@ -3817,7 +3916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>88</v>
       </c>
@@ -3843,7 +3942,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>89</v>
       </c>
@@ -3869,7 +3968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>90</v>
       </c>
@@ -3895,7 +3994,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>91</v>
       </c>
@@ -3921,7 +4020,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>92</v>
       </c>
@@ -3947,7 +4046,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>93</v>
       </c>
@@ -3973,7 +4072,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>94</v>
       </c>
@@ -3999,7 +4098,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>95</v>
       </c>
@@ -4025,7 +4124,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>96</v>
       </c>
@@ -4051,7 +4150,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>97</v>
       </c>
@@ -4077,7 +4176,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>98</v>
       </c>
@@ -4103,7 +4202,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>99</v>
       </c>
@@ -4129,7 +4228,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>100</v>
       </c>
@@ -4155,7 +4254,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>101</v>
       </c>
@@ -4181,7 +4280,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>102</v>
       </c>
@@ -4207,7 +4306,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>103</v>
       </c>
@@ -4233,7 +4332,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>104</v>
       </c>
@@ -4259,7 +4358,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>105</v>
       </c>
@@ -4285,7 +4384,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>106</v>
       </c>
@@ -4311,7 +4410,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>107</v>
       </c>
@@ -4337,7 +4436,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>108</v>
       </c>
@@ -4363,7 +4462,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>109</v>
       </c>
@@ -4389,7 +4488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>110</v>
       </c>
@@ -4415,7 +4514,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>111</v>
       </c>
@@ -4441,7 +4540,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>112</v>
       </c>
@@ -4467,7 +4566,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>113</v>
       </c>
@@ -4493,7 +4592,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>114</v>
       </c>
@@ -4519,7 +4618,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>115</v>
       </c>
@@ -4545,7 +4644,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>116</v>
       </c>
@@ -4571,7 +4670,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>117</v>
       </c>
@@ -4597,7 +4696,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>118</v>
       </c>
@@ -4623,7 +4722,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>119</v>
       </c>
@@ -4649,7 +4748,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>120</v>
       </c>
@@ -4675,7 +4774,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>121</v>
       </c>
@@ -4701,7 +4800,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>122</v>
       </c>
@@ -4727,7 +4826,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>123</v>
       </c>
@@ -4753,7 +4852,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>124</v>
       </c>
@@ -4779,7 +4878,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>125</v>
       </c>
@@ -4805,7 +4904,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>126</v>
       </c>
@@ -4831,7 +4930,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>127</v>
       </c>
@@ -4857,7 +4956,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>128</v>
       </c>
@@ -4883,7 +4982,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>129</v>
       </c>
@@ -4909,7 +5008,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>130</v>
       </c>
@@ -4935,7 +5034,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>131</v>
       </c>
@@ -4961,7 +5060,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>132</v>
       </c>
@@ -4987,7 +5086,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>133</v>
       </c>
@@ -5013,7 +5112,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>134</v>
       </c>
@@ -5039,7 +5138,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>135</v>
       </c>
@@ -5065,7 +5164,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>136</v>
       </c>
@@ -5091,7 +5190,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>137</v>
       </c>
@@ -5117,7 +5216,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>138</v>
       </c>
@@ -5143,7 +5242,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>139</v>
       </c>
@@ -5169,7 +5268,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>140</v>
       </c>
@@ -5195,7 +5294,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5320,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>142</v>
       </c>
@@ -5247,7 +5346,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>143</v>
       </c>
@@ -5273,7 +5372,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>144</v>
       </c>
@@ -5299,7 +5398,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>145</v>
       </c>
@@ -5325,7 +5424,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>146</v>
       </c>
@@ -5351,7 +5450,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>147</v>
       </c>
@@ -5377,7 +5476,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>148</v>
       </c>
@@ -5403,7 +5502,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>149</v>
       </c>
@@ -5429,7 +5528,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>150</v>
       </c>
@@ -5455,7 +5554,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>151</v>
       </c>
@@ -5481,7 +5580,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>152</v>
       </c>
@@ -5507,7 +5606,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>153</v>
       </c>
@@ -5533,7 +5632,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>154</v>
       </c>
@@ -5559,7 +5658,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>155</v>
       </c>
@@ -5585,7 +5684,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>156</v>
       </c>
@@ -5611,7 +5710,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>157</v>
       </c>
@@ -5637,7 +5736,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>158</v>
       </c>
@@ -5663,7 +5762,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>159</v>
       </c>
@@ -5689,7 +5788,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>160</v>
       </c>
@@ -5715,7 +5814,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>161</v>
       </c>
@@ -5741,7 +5840,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>162</v>
       </c>
@@ -5767,7 +5866,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>163</v>
       </c>
@@ -5793,7 +5892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>164</v>
       </c>
@@ -5819,7 +5918,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>165</v>
       </c>
@@ -5845,7 +5944,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>166</v>
       </c>
@@ -5871,7 +5970,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>167</v>
       </c>
@@ -5897,7 +5996,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>168</v>
       </c>
@@ -5923,7 +6022,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>169</v>
       </c>
@@ -5949,7 +6048,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>170</v>
       </c>
@@ -5975,7 +6074,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>171</v>
       </c>
@@ -6001,7 +6100,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>172</v>
       </c>
@@ -6027,7 +6126,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>173</v>
       </c>
@@ -6053,7 +6152,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>174</v>
       </c>
@@ -6079,7 +6178,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>175</v>
       </c>
@@ -6105,7 +6204,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>176</v>
       </c>
@@ -6131,7 +6230,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>177</v>
       </c>
@@ -6157,7 +6256,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>178</v>
       </c>
@@ -6183,7 +6282,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>179</v>
       </c>
@@ -6209,7 +6308,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>180</v>
       </c>
@@ -6235,7 +6334,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>181</v>
       </c>
@@ -6261,7 +6360,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>182</v>
       </c>
@@ -6287,7 +6386,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>183</v>
       </c>
@@ -6313,7 +6412,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>184</v>
       </c>
@@ -6339,7 +6438,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>185</v>
       </c>
@@ -6365,7 +6464,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>186</v>
       </c>
@@ -6391,7 +6490,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>187</v>
       </c>
@@ -6417,7 +6516,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>188</v>
       </c>
@@ -6443,7 +6542,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>189</v>
       </c>
@@ -6469,7 +6568,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>190</v>
       </c>
@@ -6495,7 +6594,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>191</v>
       </c>
@@ -6521,7 +6620,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>192</v>
       </c>
@@ -6547,7 +6646,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>193</v>
       </c>
@@ -6573,7 +6672,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>194</v>
       </c>
@@ -6599,7 +6698,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>195</v>
       </c>
@@ -6625,7 +6724,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>196</v>
       </c>
@@ -6651,7 +6750,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>197</v>
       </c>
@@ -6677,7 +6776,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>198</v>
       </c>
@@ -6703,7 +6802,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>199</v>
       </c>
@@ -6729,7 +6828,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>200</v>
       </c>
@@ -6755,7 +6854,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>201</v>
       </c>
@@ -6781,7 +6880,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>202</v>
       </c>
@@ -6807,7 +6906,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>203</v>
       </c>
@@ -6833,7 +6932,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>204</v>
       </c>
@@ -6859,7 +6958,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>205</v>
       </c>
@@ -6885,7 +6984,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>206</v>
       </c>
@@ -6911,7 +7010,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>207</v>
       </c>
@@ -6937,7 +7036,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>208</v>
       </c>
@@ -6963,7 +7062,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>209</v>
       </c>
@@ -6989,7 +7088,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>210</v>
       </c>
@@ -7015,7 +7114,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>211</v>
       </c>
@@ -7041,7 +7140,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>212</v>
       </c>
@@ -7067,7 +7166,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>213</v>
       </c>
@@ -7093,7 +7192,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>214</v>
       </c>
@@ -7119,7 +7218,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>215</v>
       </c>
@@ -7145,7 +7244,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>216</v>
       </c>
@@ -7171,7 +7270,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>217</v>
       </c>
@@ -7197,7 +7296,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>218</v>
       </c>
@@ -7223,7 +7322,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>219</v>
       </c>
@@ -7249,7 +7348,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>220</v>
       </c>
@@ -7275,7 +7374,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>221</v>
       </c>
@@ -7301,7 +7400,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>222</v>
       </c>
@@ -7327,7 +7426,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>223</v>
       </c>
@@ -7353,7 +7452,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>224</v>
       </c>
@@ -7379,7 +7478,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>225</v>
       </c>
@@ -7405,7 +7504,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>226</v>
       </c>
@@ -7431,7 +7530,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>227</v>
       </c>
@@ -7457,7 +7556,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>228</v>
       </c>
@@ -7483,7 +7582,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>229</v>
       </c>
@@ -7509,7 +7608,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>230</v>
       </c>
@@ -7535,7 +7634,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>231</v>
       </c>
@@ -7561,7 +7660,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>232</v>
       </c>
@@ -7587,7 +7686,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>233</v>
       </c>
@@ -7613,7 +7712,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>234</v>
       </c>
@@ -7639,7 +7738,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>235</v>
       </c>
@@ -7665,7 +7764,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>236</v>
       </c>
@@ -7691,7 +7790,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>237</v>
       </c>
@@ -7717,7 +7816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>238</v>
       </c>
@@ -7743,7 +7842,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>239</v>
       </c>
@@ -7769,7 +7868,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>240</v>
       </c>
@@ -7795,7 +7894,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>241</v>
       </c>
@@ -7821,7 +7920,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>242</v>
       </c>
@@ -7847,7 +7946,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>243</v>
       </c>
@@ -7873,7 +7972,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>244</v>
       </c>
@@ -7899,7 +7998,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>245</v>
       </c>
@@ -7925,7 +8024,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>246</v>
       </c>
@@ -7951,7 +8050,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>247</v>
       </c>
@@ -7977,7 +8076,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>248</v>
       </c>
@@ -8003,7 +8102,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>249</v>
       </c>
@@ -8029,7 +8128,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>250</v>
       </c>
@@ -8055,7 +8154,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>251</v>
       </c>
@@ -8081,7 +8180,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>252</v>
       </c>
@@ -8107,7 +8206,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>253</v>
       </c>
@@ -8133,7 +8232,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>254</v>
       </c>
@@ -8159,7 +8258,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>255</v>
       </c>
@@ -8185,7 +8284,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>256</v>
       </c>
@@ -8211,7 +8310,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>257</v>
       </c>
@@ -8237,7 +8336,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>258</v>
       </c>
@@ -8263,7 +8362,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>259</v>
       </c>
@@ -8289,7 +8388,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>260</v>
       </c>
@@ -8315,7 +8414,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>261</v>
       </c>
@@ -8341,7 +8440,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>262</v>
       </c>
@@ -8367,7 +8466,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>262</v>
       </c>
@@ -8393,7 +8492,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>263</v>
       </c>
@@ -8419,7 +8518,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>264</v>
       </c>
@@ -8445,7 +8544,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>265</v>
       </c>
@@ -8471,7 +8570,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>266</v>
       </c>
@@ -8497,7 +8596,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>267</v>
       </c>
@@ -8523,7 +8622,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>268</v>
       </c>
@@ -8549,7 +8648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>269</v>
       </c>
@@ -8575,7 +8674,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>270</v>
       </c>
@@ -8601,7 +8700,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>271</v>
       </c>
@@ -8627,7 +8726,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>272</v>
       </c>
@@ -8653,7 +8752,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>273</v>
       </c>
@@ -8679,7 +8778,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>274</v>
       </c>
@@ -8705,7 +8804,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>275</v>
       </c>
@@ -8731,7 +8830,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>276</v>
       </c>
@@ -8757,7 +8856,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>277</v>
       </c>
@@ -8783,7 +8882,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>278</v>
       </c>
@@ -8809,7 +8908,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>279</v>
       </c>
@@ -8835,7 +8934,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>280</v>
       </c>
@@ -8861,7 +8960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>281</v>
       </c>
@@ -8887,7 +8986,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>282</v>
       </c>
@@ -8913,7 +9012,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>283</v>
       </c>
@@ -8939,7 +9038,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>284</v>
       </c>
@@ -8965,7 +9064,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>285</v>
       </c>
@@ -8991,7 +9090,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>286</v>
       </c>
@@ -9017,7 +9116,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>287</v>
       </c>
@@ -9043,7 +9142,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>288</v>
       </c>
@@ -9069,7 +9168,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>289</v>
       </c>
@@ -9095,7 +9194,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>290</v>
       </c>
@@ -9121,7 +9220,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>291</v>
       </c>
@@ -9147,7 +9246,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>292</v>
       </c>
@@ -9173,7 +9272,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>293</v>
       </c>
@@ -9199,7 +9298,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>294</v>
       </c>
@@ -9225,7 +9324,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>295</v>
       </c>
@@ -9251,7 +9350,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>296</v>
       </c>
@@ -9277,7 +9376,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>297</v>
       </c>
@@ -9303,7 +9402,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>298</v>
       </c>
@@ -9329,7 +9428,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
         <v>299</v>
       </c>
@@ -9355,7 +9454,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>300</v>
       </c>
@@ -9381,7 +9480,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>301</v>
       </c>
@@ -9407,7 +9506,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>302</v>
       </c>
@@ -9433,7 +9532,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>303</v>
       </c>
@@ -9459,7 +9558,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>304</v>
       </c>
@@ -9486,7 +9585,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H291">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H291">
     <sortCondition ref="D2:D291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9501,9 +9600,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>305</v>
       </c>
@@ -9526,7 +9625,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>310</v>
       </c>
@@ -9549,7 +9648,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>311</v>
       </c>
@@ -9572,7 +9671,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>312</v>
       </c>
@@ -9595,7 +9694,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>313</v>
       </c>
@@ -9618,7 +9717,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>314</v>
       </c>
@@ -9641,7 +9740,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>315</v>
       </c>
@@ -9664,7 +9763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>316</v>
       </c>
@@ -9687,7 +9786,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>317</v>
       </c>
@@ -9716,316 +9815,123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB40DDF2-9177-1F4E-A957-3EABD91CB086}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F339A6F-E2BD-0E47-9492-C211BB25D006}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C2" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>3</v>
+      <c r="E5" s="10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.15</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="E6" s="10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10033,123 +9939,570 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F339A6F-E2BD-0E47-9492-C211BB25D006}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB40DDF2-9177-1F4E-A957-3EABD91CB086}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A51C7-8312-4C85-9A6F-2320E7693905}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA3DDD2-E052-4F16-AAB0-4E402E83AE39}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.85</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="10">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="D6" s="5">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="14">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="14">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="14">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="14">
         <v>0.15</v>
       </c>
-      <c r="E6" s="10">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="F4" s="14">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="14">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/vitivinicola.xlsx
+++ b/docs/vitivinicola.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolina Stuardo\Desktop\Capstone\vitivinicola\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5218B-161C-447B-B123-0BF5634B3D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D8FD8-9649-4008-BE06-A6F298B3A23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lotes" sheetId="1" r:id="rId1"/>
@@ -9596,8 +9596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD728280-9750-254C-88AF-A34F9C43BEB9}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>100</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>85</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>75</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>90</v>
@@ -10381,7 +10381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA3DDD2-E052-4F16-AAB0-4E402E83AE39}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/docs/vitivinicola.xlsx
+++ b/docs/vitivinicola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolina Stuardo\Desktop\Capstone\vitivinicola\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7E87CC-DB13-4613-A30C-7FF13D6CFE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071F8A0-6058-44F7-A399-99CCD050817F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="319">
   <si>
     <t>Tipo UVA</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>Días de lluvia en 7 días</t>
+  </si>
+  <si>
+    <t>Costo lluvias</t>
   </si>
 </sst>
 </file>
@@ -1933,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,11 +1947,11 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -1976,11 +1979,14 @@
       <c r="I1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -2006,13 +2012,17 @@
         <v>0.36</v>
       </c>
       <c r="I2" s="7">
-        <v>374.55632557502202</v>
+        <v>304.43584509566017</v>
       </c>
       <c r="J2" s="7">
+        <f>((H2/(1-0.1*K2))-H2)*1000*C2</f>
+        <v>14308.965517241384</v>
+      </c>
+      <c r="K2" s="7">
         <v>3.04</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -2038,13 +2048,17 @@
         <v>0.38</v>
       </c>
       <c r="I3" s="7">
-        <v>361.26324608375973</v>
+        <v>148.94347618737029</v>
       </c>
       <c r="J3" s="7">
+        <f>((H3/(1-0.1*K3))-H3)*1000*C3</f>
+        <v>7768.0201188843184</v>
+      </c>
+      <c r="K3" s="7">
         <v>3.4390000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -2070,13 +2084,17 @@
         <v>0.67</v>
       </c>
       <c r="I4" s="7">
-        <v>148.94347618737029</v>
+        <v>635.5302594275563</v>
       </c>
       <c r="J4" s="7">
+        <f>((H4/(1-0.1*K4))-H4)*1000*C4</f>
+        <v>56987.035175879406</v>
+      </c>
+      <c r="K4" s="7">
         <v>4.03</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
@@ -2102,13 +2120,17 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="7">
-        <v>413.7816266569564</v>
+        <v>342.75977013605694</v>
       </c>
       <c r="J5" s="7">
+        <f>((H5/(1-0.1*K5))-H5)*1000*C5</f>
+        <v>16312.500000000007</v>
+      </c>
+      <c r="K5" s="7">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
@@ -2134,13 +2156,17 @@
         <v>0.63</v>
       </c>
       <c r="I6" s="7">
-        <v>111.32948418619671</v>
+        <v>595.3383798703918</v>
       </c>
       <c r="J6" s="7">
+        <f>((H6/(1-0.1*K6))-H6)*1000*C6</f>
+        <v>32996.972477064228</v>
+      </c>
+      <c r="K6" s="7">
         <v>3.46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>92</v>
       </c>
@@ -2166,13 +2192,17 @@
         <v>0.63</v>
       </c>
       <c r="I7" s="7">
-        <v>172.98969903541393</v>
+        <v>617.34609185845898</v>
       </c>
       <c r="J7" s="7">
+        <f>((H7/(1-0.1*K7))-H7)*1000*C7</f>
+        <v>44198.43439911797</v>
+      </c>
+      <c r="K7" s="7">
         <v>3.6509999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>95</v>
       </c>
@@ -2198,13 +2228,17 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="7">
-        <v>342.75977013605694</v>
+        <v>435.02546084164908</v>
       </c>
       <c r="J8" s="7">
+        <f>((H8/(1-0.1*K8))-H8)*1000*C8</f>
+        <v>28171.426329828962</v>
+      </c>
+      <c r="K8" s="7">
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>99</v>
       </c>
@@ -2230,13 +2264,17 @@
         <v>0.36</v>
       </c>
       <c r="I9" s="7">
-        <v>435.02546084164908</v>
+        <v>374.55632557502202</v>
       </c>
       <c r="J9" s="7">
+        <f>((H9/(1-0.1*K9))-H9)*1000*C9</f>
+        <v>17687.317568547798</v>
+      </c>
+      <c r="K9" s="7">
         <v>3.1070000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>100</v>
       </c>
@@ -2262,13 +2300,17 @@
         <v>0.43</v>
       </c>
       <c r="I10" s="7">
-        <v>338.0522384579412</v>
+        <v>413.7816266569564</v>
       </c>
       <c r="J10" s="7">
+        <f>((H10/(1-0.1*K10))-H10)*1000*C10</f>
+        <v>21792.405443899355</v>
+      </c>
+      <c r="K10" s="7">
         <v>3.681</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>109</v>
       </c>
@@ -2294,13 +2336,17 @@
         <v>0.87</v>
       </c>
       <c r="I11" s="7">
-        <v>212.85026586324585</v>
+        <v>143.8194930109704</v>
       </c>
       <c r="J11" s="7">
+        <f>((H11/(1-0.1*K11))-H11)*1000*C11</f>
+        <v>26656.386768447854</v>
+      </c>
+      <c r="K11" s="7">
         <v>4.1050000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>117</v>
       </c>
@@ -2326,13 +2372,17 @@
         <v>0.62</v>
       </c>
       <c r="I12" s="7">
-        <v>465.78483686076089</v>
+        <v>613.07680644752895</v>
       </c>
       <c r="J12" s="7">
+        <f>((H12/(1-0.1*K12))-H12)*1000*C12</f>
+        <v>55739.492648246902</v>
+      </c>
+      <c r="K12" s="7">
         <v>3.8109999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>123</v>
       </c>
@@ -2358,13 +2408,17 @@
         <v>0.53</v>
       </c>
       <c r="I13" s="7">
-        <v>123.63595991418875</v>
+        <v>212.85026586324585</v>
       </c>
       <c r="J13" s="7">
+        <f>((H13/(1-0.1*K13))-H13)*1000*C13</f>
+        <v>10036.605542534122</v>
+      </c>
+      <c r="K13" s="7">
         <v>2.7469999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>134</v>
       </c>
@@ -2390,13 +2444,17 @@
         <v>0.46</v>
       </c>
       <c r="I14" s="7">
-        <v>332.40070165522195</v>
+        <v>172.98969903541393</v>
       </c>
       <c r="J14" s="7">
+        <f>((H14/(1-0.1*K14))-H14)*1000*C14</f>
+        <v>6892.7762570234854</v>
+      </c>
+      <c r="K14" s="7">
         <v>3.0590000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>135</v>
       </c>
@@ -2422,13 +2480,17 @@
         <v>0.36</v>
       </c>
       <c r="I15" s="7">
-        <v>613.07680644752895</v>
+        <v>361.26324608375973</v>
       </c>
       <c r="J15" s="7">
+        <f>((H15/(1-0.1*K15))-H15)*1000*C15</f>
+        <v>14704.842681258551</v>
+      </c>
+      <c r="K15" s="7">
         <v>2.69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
@@ -2454,13 +2516,17 @@
         <v>0.9</v>
       </c>
       <c r="I16" s="7">
-        <v>565.2029169251656</v>
+        <v>806.89391688416833</v>
       </c>
       <c r="J16" s="7">
+        <f>((H16/(1-0.1*K16))-H16)*1000*C16</f>
+        <v>66803.569801002595</v>
+      </c>
+      <c r="K16" s="7">
         <v>3.4169999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -2486,13 +2552,17 @@
         <v>0.35</v>
       </c>
       <c r="I17" s="7">
-        <v>595.3383798703918</v>
+        <v>565.2029169251656</v>
       </c>
       <c r="J17" s="7">
+        <f>((H17/(1-0.1*K17))-H17)*1000*C17</f>
+        <v>30686.171574903958</v>
+      </c>
+      <c r="K17" s="7">
         <v>3.7519999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>178</v>
       </c>
@@ -2518,13 +2588,17 @@
         <v>0.68</v>
       </c>
       <c r="I18" s="7">
-        <v>617.34609185845898</v>
+        <v>172.51397856227803</v>
       </c>
       <c r="J18" s="7">
+        <f>((H18/(1-0.1*K18))-H18)*1000*C18</f>
+        <v>19041.750321750329</v>
+      </c>
+      <c r="K18" s="7">
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>190</v>
       </c>
@@ -2550,13 +2624,17 @@
         <v>0.84</v>
       </c>
       <c r="I19" s="7">
-        <v>635.5302594275563</v>
+        <v>709.13978945889426</v>
       </c>
       <c r="J19" s="7">
+        <f>((H19/(1-0.1*K19))-H19)*1000*C19</f>
+        <v>35179.547429941551</v>
+      </c>
+      <c r="K19" s="7">
         <v>3.327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>201</v>
       </c>
@@ -2582,13 +2660,17 @@
         <v>0.53</v>
       </c>
       <c r="I20" s="7">
-        <v>172.51397856227803</v>
+        <v>465.78483686076089</v>
       </c>
       <c r="J20" s="7">
+        <f>((H20/(1-0.1*K20))-H20)*1000*C20</f>
+        <v>35762.351364930495</v>
+      </c>
+      <c r="K20" s="7">
         <v>4.0289999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>213</v>
       </c>
@@ -2614,13 +2696,17 @@
         <v>0.45</v>
       </c>
       <c r="I21" s="7">
-        <v>289.95571946021624</v>
+        <v>111.32948418619671</v>
       </c>
       <c r="J21" s="7">
+        <f>((H21/(1-0.1*K21))-H21)*1000*C21</f>
+        <v>13273.828125</v>
+      </c>
+      <c r="K21" s="7">
         <v>3.8559999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>225</v>
       </c>
@@ -2649,10 +2735,14 @@
         <v>848.37724424829526</v>
       </c>
       <c r="J22" s="7">
+        <f>((H22/(1-0.1*K22))-H22)*1000*C22</f>
+        <v>45709.757014752679</v>
+      </c>
+      <c r="K22" s="7">
         <v>3.0859999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>231</v>
       </c>
@@ -2678,13 +2768,17 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I23" s="7">
-        <v>398.23505950171392</v>
+        <v>123.63595991418875</v>
       </c>
       <c r="J23" s="7">
+        <f>((H23/(1-0.1*K23))-H23)*1000*C23</f>
+        <v>10263.275049414629</v>
+      </c>
+      <c r="K23" s="7">
         <v>3.423</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>244</v>
       </c>
@@ -2710,13 +2804,17 @@
         <v>0.5</v>
       </c>
       <c r="I24" s="7">
-        <v>709.13978945889426</v>
+        <v>338.0522384579412</v>
       </c>
       <c r="J24" s="7">
+        <f>((H24/(1-0.1*K24))-H24)*1000*C24</f>
+        <v>41555.485098287878</v>
+      </c>
+      <c r="K24" s="7">
         <v>3.6920000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
@@ -2742,13 +2840,17 @@
         <v>0.89</v>
       </c>
       <c r="I25" s="7">
-        <v>304.43584509566017</v>
+        <v>541.25215108477596</v>
       </c>
       <c r="J25" s="7">
+        <f>((H25/(1-0.1*K25))-H25)*1000*C25</f>
+        <v>60290.244565217392</v>
+      </c>
+      <c r="K25" s="7">
         <v>4.1120000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>253</v>
       </c>
@@ -2774,13 +2876,17 @@
         <v>0.74</v>
       </c>
       <c r="I26" s="7">
-        <v>143.8194930109704</v>
+        <v>289.95571946021624</v>
       </c>
       <c r="J26" s="7">
+        <f>((H26/(1-0.1*K26))-H26)*1000*C26</f>
+        <v>42117.474910974444</v>
+      </c>
+      <c r="K26" s="7">
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>262</v>
       </c>
@@ -2806,13 +2912,17 @@
         <v>0.82</v>
       </c>
       <c r="I27" s="7">
-        <v>541.25215108477596</v>
+        <v>398.23505950171392</v>
       </c>
       <c r="J27" s="7">
+        <f>((H27/(1-0.1*K27))-H27)*1000*C27</f>
+        <v>42532.876753658158</v>
+      </c>
+      <c r="K27" s="7">
         <v>3.371</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>263</v>
       </c>
@@ -2838,13 +2948,17 @@
         <v>0.59</v>
       </c>
       <c r="I28" s="7">
-        <v>806.89391688416833</v>
+        <v>332.40070165522195</v>
       </c>
       <c r="J28" s="7">
+        <f>((H28/(1-0.1*K28))-H28)*1000*C28</f>
+        <v>23423.869314541953</v>
+      </c>
+      <c r="K28" s="7">
         <v>3.7559999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2870,13 +2984,17 @@
         <v>0.49</v>
       </c>
       <c r="I29" s="7">
-        <v>118.52473097153288</v>
+        <v>312.11958755660294</v>
       </c>
       <c r="J29" s="7">
+        <f>((H29/(1-0.1*K29))-H29)*1000*C29</f>
+        <v>38647.795823665896</v>
+      </c>
+      <c r="K29" s="7">
         <v>3.9660000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2902,13 +3020,17 @@
         <v>0.5</v>
       </c>
       <c r="I30" s="7">
-        <v>182.55298677377215</v>
+        <v>266.90013418537097</v>
       </c>
       <c r="J30" s="7">
+        <f>((H30/(1-0.1*K30))-H30)*1000*C30</f>
+        <v>10929.202215237245</v>
+      </c>
+      <c r="K30" s="7">
         <v>3.319</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>72</v>
       </c>
@@ -2934,13 +3056,17 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I31" s="7">
-        <v>615.13862218656072</v>
+        <v>175.497361364939</v>
       </c>
       <c r="J31" s="7">
+        <f>((H31/(1-0.1*K31))-H31)*1000*C31</f>
+        <v>9727.1156826828228</v>
+      </c>
+      <c r="K31" s="7">
         <v>2.903</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>77</v>
       </c>
@@ -2966,13 +3092,17 @@
         <v>0.49</v>
       </c>
       <c r="I32" s="7">
-        <v>266.90013418537097</v>
+        <v>118.52473097153288</v>
       </c>
       <c r="J32" s="7">
+        <f>((H32/(1-0.1*K32))-H32)*1000*C32</f>
+        <v>10284.962201390988</v>
+      </c>
+      <c r="K32" s="7">
         <v>3.3860000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>82</v>
       </c>
@@ -2998,13 +3128,17 @@
         <v>0.86</v>
       </c>
       <c r="I33" s="7">
-        <v>138.06514408753878</v>
+        <v>717.19232874031877</v>
       </c>
       <c r="J33" s="7">
+        <f>((H33/(1-0.1*K33))-H33)*1000*C33</f>
+        <v>41272.771050007126</v>
+      </c>
+      <c r="K33" s="7">
         <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
@@ -3030,13 +3164,17 @@
         <v>0.69</v>
       </c>
       <c r="I34" s="7">
-        <v>794.29681678652003</v>
+        <v>274.6873484287255</v>
       </c>
       <c r="J34" s="7">
+        <f>((H34/(1-0.1*K34))-H34)*1000*C34</f>
+        <v>8603.1102760514532</v>
+      </c>
+      <c r="K34" s="7">
         <v>3.081</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -3062,13 +3200,17 @@
         <v>0.52</v>
       </c>
       <c r="I35" s="7">
-        <v>843.18833445726216</v>
+        <v>623.50502626595858</v>
       </c>
       <c r="J35" s="7">
+        <f>((H35/(1-0.1*K35))-H35)*1000*C35</f>
+        <v>33120.437535981589</v>
+      </c>
+      <c r="K35" s="7">
         <v>3.052</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
@@ -3094,13 +3236,17 @@
         <v>0.75</v>
       </c>
       <c r="I36" s="7">
-        <v>623.50502626595858</v>
+        <v>418.52312788274747</v>
       </c>
       <c r="J36" s="7">
+        <f>((H36/(1-0.1*K36))-H36)*1000*C36</f>
+        <v>16881.161718074378</v>
+      </c>
+      <c r="K36" s="7">
         <v>3.0619999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
@@ -3126,13 +3272,17 @@
         <v>0.6</v>
       </c>
       <c r="I37" s="7">
-        <v>339.6294604715888</v>
+        <v>545.33892103555172</v>
       </c>
       <c r="J37" s="7">
+        <f>((H37/(1-0.1*K37))-H37)*1000*C37</f>
+        <v>31250.349650349657</v>
+      </c>
+      <c r="K37" s="7">
         <v>3.1360000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>104</v>
       </c>
@@ -3158,13 +3308,17 @@
         <v>0.75</v>
       </c>
       <c r="I38" s="7">
-        <v>175.497361364939</v>
+        <v>1444.4182205335067</v>
       </c>
       <c r="J38" s="7">
+        <f>((H38/(1-0.1*K38))-H38)*1000*C38</f>
+        <v>38199.373695198345</v>
+      </c>
+      <c r="K38" s="7">
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>105</v>
       </c>
@@ -3190,13 +3344,17 @@
         <v>0.49</v>
       </c>
       <c r="I39" s="7">
-        <v>1254.4826474334136</v>
+        <v>182.55298677377215</v>
       </c>
       <c r="J39" s="7">
+        <f>((H39/(1-0.1*K39))-H39)*1000*C39</f>
+        <v>6916.7976424361514</v>
+      </c>
+      <c r="K39" s="7">
         <v>2.8740000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>112</v>
       </c>
@@ -3222,13 +3380,17 @@
         <v>0.87</v>
       </c>
       <c r="I40" s="7">
-        <v>545.33892103555172</v>
+        <v>1611.2430712071978</v>
       </c>
       <c r="J40" s="7">
+        <f>((H40/(1-0.1*K40))-H40)*1000*C40</f>
+        <v>55661.595197255578</v>
+      </c>
+      <c r="K40" s="7">
         <v>3.004</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>113</v>
       </c>
@@ -3254,13 +3416,17 @@
         <v>0.43</v>
       </c>
       <c r="I41" s="7">
-        <v>265.71562805451077</v>
+        <v>346.3331631651684</v>
       </c>
       <c r="J41" s="7">
+        <f>((H41/(1-0.1*K41))-H41)*1000*C41</f>
+        <v>37034.330839567752</v>
+      </c>
+      <c r="K41" s="7">
         <v>3.9849999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>115</v>
       </c>
@@ -3286,13 +3452,17 @@
         <v>0.84</v>
       </c>
       <c r="I42" s="7">
-        <v>314.44114296117618</v>
+        <v>213.09672885474339</v>
       </c>
       <c r="J42" s="7">
+        <f>((H42/(1-0.1*K42))-H42)*1000*C42</f>
+        <v>11733.736089030204</v>
+      </c>
+      <c r="K42" s="7">
         <v>2.452</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>21</v>
       </c>
@@ -3318,13 +3488,17 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I43" s="7">
-        <v>210.12221334777038</v>
+        <v>1254.4826474334136</v>
       </c>
       <c r="J43" s="7">
+        <f>((H43/(1-0.1*K43))-H43)*1000*C43</f>
+        <v>43887.599517490948</v>
+      </c>
+      <c r="K43" s="7">
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
@@ -3350,13 +3524,17 @@
         <v>0.67</v>
       </c>
       <c r="I44" s="7">
-        <v>133.4645254113297</v>
+        <v>570.66421568453518</v>
       </c>
       <c r="J44" s="7">
+        <f>((H44/(1-0.1*K44))-H44)*1000*C44</f>
+        <v>48674.174624829458</v>
+      </c>
+      <c r="K44" s="7">
         <v>4.1360000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>124</v>
       </c>
@@ -3382,13 +3560,17 @@
         <v>0.59</v>
       </c>
       <c r="I45" s="7">
-        <v>234.31680802566746</v>
+        <v>339.6294604715888</v>
       </c>
       <c r="J45" s="7">
+        <f>((H45/(1-0.1*K45))-H45)*1000*C45</f>
+        <v>20617.70634231103</v>
+      </c>
+      <c r="K45" s="7">
         <v>3.0939999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>125</v>
       </c>
@@ -3414,13 +3596,17 @@
         <v>0.81</v>
       </c>
       <c r="I46" s="7">
-        <v>570.66421568453518</v>
+        <v>402.71754614759737</v>
       </c>
       <c r="J46" s="7">
+        <f>((H46/(1-0.1*K46))-H46)*1000*C46</f>
+        <v>17584.572662758412</v>
+      </c>
+      <c r="K46" s="7">
         <v>3.5179999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>129</v>
       </c>
@@ -3446,13 +3632,17 @@
         <v>0.51</v>
       </c>
       <c r="I47" s="7">
-        <v>600.13214167580634</v>
+        <v>138.06514408753878</v>
       </c>
       <c r="J47" s="7">
+        <f>((H47/(1-0.1*K47))-H47)*1000*C47</f>
+        <v>10727.288135593224</v>
+      </c>
+      <c r="K47" s="7">
         <v>2.92</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>137</v>
       </c>
@@ -3478,13 +3668,17 @@
         <v>0.6</v>
       </c>
       <c r="I48" s="7">
-        <v>274.6873484287255</v>
+        <v>265.71562805451077</v>
       </c>
       <c r="J48" s="7">
+        <f>((H48/(1-0.1*K48))-H48)*1000*C48</f>
+        <v>12906.122448979588</v>
+      </c>
+      <c r="K48" s="7">
         <v>3.875</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>142</v>
       </c>
@@ -3510,13 +3704,17 @@
         <v>0.8</v>
       </c>
       <c r="I49" s="7">
-        <v>468.72554668188025</v>
+        <v>466.41855501531518</v>
       </c>
       <c r="J49" s="7">
+        <f>((H49/(1-0.1*K49))-H49)*1000*C49</f>
+        <v>35704.538341158062</v>
+      </c>
+      <c r="K49" s="7">
         <v>3.61</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>145</v>
       </c>
@@ -3542,13 +3740,17 @@
         <v>0.62</v>
       </c>
       <c r="I50" s="7">
-        <v>418.52312788274747</v>
+        <v>314.44114296117618</v>
       </c>
       <c r="J50" s="7">
+        <f>((H50/(1-0.1*K50))-H50)*1000*C50</f>
+        <v>17744.496124031004</v>
+      </c>
+      <c r="K50" s="7">
         <v>3.55</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>156</v>
       </c>
@@ -3574,13 +3776,17 @@
         <v>0.51</v>
       </c>
       <c r="I51" s="7">
-        <v>1444.4182205335067</v>
+        <v>794.29681678652003</v>
       </c>
       <c r="J51" s="7">
+        <f>((H51/(1-0.1*K51))-H51)*1000*C51</f>
+        <v>32414.891895867051</v>
+      </c>
+      <c r="K51" s="7">
         <v>3.2010000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>28</v>
       </c>
@@ -3606,13 +3812,17 @@
         <v>0.45</v>
       </c>
       <c r="I52" s="7">
-        <v>346.3331631651684</v>
+        <v>797.39760870347823</v>
       </c>
       <c r="J52" s="7">
+        <f>((H52/(1-0.1*K52))-H52)*1000*C52</f>
+        <v>35376.73031026253</v>
+      </c>
+      <c r="K52" s="7">
         <v>3.7149999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>193</v>
       </c>
@@ -3638,13 +3848,17 @@
         <v>0.53</v>
       </c>
       <c r="I53" s="7">
-        <v>466.41855501531518</v>
+        <v>843.18833445726216</v>
       </c>
       <c r="J53" s="7">
+        <f>((H53/(1-0.1*K53))-H53)*1000*C53</f>
+        <v>27336.664783161465</v>
+      </c>
+      <c r="K53" s="7">
         <v>2.9209999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>196</v>
       </c>
@@ -3670,13 +3884,17 @@
         <v>0.49</v>
       </c>
       <c r="I54" s="7">
-        <v>213.09672885474339</v>
+        <v>615.13862218656072</v>
       </c>
       <c r="J54" s="7">
+        <f>((H54/(1-0.1*K54))-H54)*1000*C54</f>
+        <v>23763.404381290708</v>
+      </c>
+      <c r="K54" s="7">
         <v>3.2440000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>195</v>
       </c>
@@ -3702,13 +3920,17 @@
         <v>0.67</v>
       </c>
       <c r="I55" s="7">
-        <v>402.71754614759737</v>
+        <v>600.13214167580634</v>
       </c>
       <c r="J55" s="7">
+        <f>((H55/(1-0.1*K55))-H55)*1000*C55</f>
+        <v>24800.636608985562</v>
+      </c>
+      <c r="K55" s="7">
         <v>3.7010000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>199</v>
       </c>
@@ -3734,13 +3956,17 @@
         <v>0.88</v>
       </c>
       <c r="I56" s="7">
-        <v>437.62805862572066</v>
+        <v>1015.5875547240489</v>
       </c>
       <c r="J56" s="7">
+        <f>((H56/(1-0.1*K56))-H56)*1000*C56</f>
+        <v>57426.010928961732</v>
+      </c>
+      <c r="K56" s="7">
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>198</v>
       </c>
@@ -3766,13 +3992,17 @@
         <v>0.89</v>
       </c>
       <c r="I57" s="7">
-        <v>717.19232874031877</v>
+        <v>884.07197523110176</v>
       </c>
       <c r="J57" s="7">
+        <f>((H57/(1-0.1*K57))-H57)*1000*C57</f>
+        <v>45202.201834862404</v>
+      </c>
+      <c r="K57" s="7">
         <v>3.46</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>209</v>
       </c>
@@ -3798,13 +4028,17 @@
         <v>0.62</v>
       </c>
       <c r="I58" s="7">
-        <v>1611.2430712071978</v>
+        <v>133.4645254113297</v>
       </c>
       <c r="J58" s="7">
+        <f>((H58/(1-0.1*K58))-H58)*1000*C58</f>
+        <v>10492.796486090772</v>
+      </c>
+      <c r="K58" s="7">
         <v>3.8530000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>210</v>
       </c>
@@ -3830,13 +4064,17 @@
         <v>0.66</v>
       </c>
       <c r="I59" s="7">
-        <v>1015.5875547240489</v>
+        <v>234.31680802566746</v>
       </c>
       <c r="J59" s="7">
+        <f>((H59/(1-0.1*K59))-H59)*1000*C59</f>
+        <v>6877.4454324979815</v>
+      </c>
+      <c r="K59" s="7">
         <v>2.5779999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>232</v>
       </c>
@@ -3862,13 +4100,17 @@
         <v>0.42</v>
       </c>
       <c r="I60" s="7">
-        <v>884.07197523110176</v>
+        <v>210.12221334777038</v>
       </c>
       <c r="J60" s="7">
+        <f>((H60/(1-0.1*K60))-H60)*1000*C60</f>
+        <v>9289.4117647058847</v>
+      </c>
+      <c r="K60" s="7">
         <v>3.2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>35</v>
       </c>
@@ -3894,13 +4136,17 @@
         <v>0.89</v>
       </c>
       <c r="I61" s="7">
-        <v>797.39760870347823</v>
+        <v>848.61000559367415</v>
       </c>
       <c r="J61" s="7">
+        <f>((H61/(1-0.1*K61))-H61)*1000*C61</f>
+        <v>30685.074626865673</v>
+      </c>
+      <c r="K61" s="7">
         <v>3.3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>258</v>
       </c>
@@ -3926,13 +4172,17 @@
         <v>0.86</v>
       </c>
       <c r="I62" s="7">
-        <v>848.61000559367415</v>
+        <v>437.62805862572066</v>
       </c>
       <c r="J62" s="7">
+        <f>((H62/(1-0.1*K62))-H62)*1000*C62</f>
+        <v>13949.624018730199</v>
+      </c>
+      <c r="K62" s="7">
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>40</v>
       </c>
@@ -3958,13 +4208,17 @@
         <v>0.72</v>
       </c>
       <c r="I63" s="7">
-        <v>312.11958755660294</v>
+        <v>468.72554668188025</v>
       </c>
       <c r="J63" s="7">
+        <f>((H63/(1-0.1*K63))-H63)*1000*C63</f>
+        <v>29309.484029484025</v>
+      </c>
+      <c r="K63" s="7">
         <v>3.488</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
@@ -3990,13 +4244,17 @@
         <v>0.63</v>
       </c>
       <c r="I64" s="7">
-        <v>444.06384822373622</v>
+        <v>769.14478957731774</v>
       </c>
       <c r="J64" s="7">
+        <f>((H64/(1-0.1*K64))-H64)*1000*C64</f>
+        <v>20238.618490967052</v>
+      </c>
+      <c r="K64" s="7">
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>81</v>
       </c>
@@ -4022,13 +4280,17 @@
         <v>0.88</v>
       </c>
       <c r="I65" s="7">
-        <v>1560.7629786780435</v>
+        <v>807.8751673623168</v>
       </c>
       <c r="J65" s="7">
+        <f>((H65/(1-0.1*K65))-H65)*1000*C65</f>
+        <v>37342.348496297433</v>
+      </c>
+      <c r="K65" s="7">
         <v>3.383</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>83</v>
       </c>
@@ -4054,13 +4316,17 @@
         <v>0.76</v>
       </c>
       <c r="I66" s="7">
-        <v>856.04438526645913</v>
+        <v>669.40713892796464</v>
       </c>
       <c r="J66" s="7">
+        <f>((H66/(1-0.1*K66))-H66)*1000*C66</f>
+        <v>51598.331226295828</v>
+      </c>
+      <c r="K66" s="7">
         <v>3.6720000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>87</v>
       </c>
@@ -4086,13 +4352,17 @@
         <v>0.44</v>
       </c>
       <c r="I67" s="7">
-        <v>551.51559826655125</v>
+        <v>473.88068140426861</v>
       </c>
       <c r="J67" s="7">
+        <f>((H67/(1-0.1*K67))-H67)*1000*C67</f>
+        <v>10981.180997484094</v>
+      </c>
+      <c r="K67" s="7">
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>86</v>
       </c>
@@ -4118,13 +4388,17 @@
         <v>0.35</v>
       </c>
       <c r="I68" s="7">
-        <v>1640.7027515174095</v>
+        <v>444.06384822373622</v>
       </c>
       <c r="J68" s="7">
+        <f>((H68/(1-0.1*K68))-H68)*1000*C68</f>
+        <v>14411.284046692605</v>
+      </c>
+      <c r="K68" s="7">
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>102</v>
       </c>
@@ -4150,13 +4424,17 @@
         <v>0.84</v>
       </c>
       <c r="I69" s="7">
-        <v>1179.5981759765616</v>
+        <v>1560.7629786780435</v>
       </c>
       <c r="J69" s="7">
+        <f>((H69/(1-0.1*K69))-H69)*1000*C69</f>
+        <v>54344.454148471617</v>
+      </c>
+      <c r="K69" s="7">
         <v>3.13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>111</v>
       </c>
@@ -4182,13 +4460,17 @@
         <v>0.38</v>
       </c>
       <c r="I70" s="7">
-        <v>719.43325977149584</v>
+        <v>856.04438526645913</v>
       </c>
       <c r="J70" s="7">
+        <f>((H70/(1-0.1*K70))-H70)*1000*C70</f>
+        <v>22872.04052098409</v>
+      </c>
+      <c r="K70" s="7">
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>114</v>
       </c>
@@ -4214,13 +4496,17 @@
         <v>0.6</v>
       </c>
       <c r="I71" s="7">
-        <v>187.46245558366681</v>
+        <v>1640.7027515174095</v>
       </c>
       <c r="J71" s="7">
+        <f>((H71/(1-0.1*K71))-H71)*1000*C71</f>
+        <v>40977.685686962068</v>
+      </c>
+      <c r="K71" s="7">
         <v>3.726</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>133</v>
       </c>
@@ -4246,13 +4532,17 @@
         <v>0.66</v>
       </c>
       <c r="I72" s="7">
-        <v>713.3892765860661</v>
+        <v>551.51559826655125</v>
       </c>
       <c r="J72" s="7">
+        <f>((H72/(1-0.1*K72))-H72)*1000*C72</f>
+        <v>32089.439171699738</v>
+      </c>
+      <c r="K72" s="7">
         <v>3.0459999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>146</v>
       </c>
@@ -4278,13 +4568,17 @@
         <v>0.86</v>
       </c>
       <c r="I73" s="7">
-        <v>298.08281951452119</v>
+        <v>719.43325977149584</v>
       </c>
       <c r="J73" s="7">
+        <f>((H73/(1-0.1*K73))-H73)*1000*C73</f>
+        <v>49859.742161387883</v>
+      </c>
+      <c r="K73" s="7">
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>151</v>
       </c>
@@ -4310,13 +4604,17 @@
         <v>0.37</v>
       </c>
       <c r="I74" s="7">
-        <v>704.22756130492826</v>
+        <v>187.46245558366681</v>
       </c>
       <c r="J74" s="7">
+        <f>((H74/(1-0.1*K74))-H74)*1000*C74</f>
+        <v>9259.6257416704721</v>
+      </c>
+      <c r="K74" s="7">
         <v>3.427</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>152</v>
       </c>
@@ -4342,13 +4640,17 @@
         <v>0.64</v>
       </c>
       <c r="I75" s="7">
-        <v>1013.1617190620385</v>
+        <v>713.3892765860661</v>
       </c>
       <c r="J75" s="7">
+        <f>((H75/(1-0.1*K75))-H75)*1000*C75</f>
+        <v>19264.927536231891</v>
+      </c>
+      <c r="K75" s="7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>157</v>
       </c>
@@ -4374,13 +4676,17 @@
         <v>0.42</v>
       </c>
       <c r="I76" s="7">
-        <v>281.70776380569959</v>
+        <v>298.08281951452119</v>
       </c>
       <c r="J76" s="7">
+        <f>((H76/(1-0.1*K76))-H76)*1000*C76</f>
+        <v>8635.4822650902297</v>
+      </c>
+      <c r="K76" s="7">
         <v>3.5720000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>23</v>
       </c>
@@ -4406,13 +4712,17 @@
         <v>0.86</v>
       </c>
       <c r="I77" s="7">
-        <v>769.14478957731774</v>
+        <v>1179.5981759765616</v>
       </c>
       <c r="J77" s="7">
+        <f>((H77/(1-0.1*K77))-H77)*1000*C77</f>
+        <v>27115.237696919001</v>
+      </c>
+      <c r="K77" s="7">
         <v>2.827</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>159</v>
       </c>
@@ -4438,13 +4748,17 @@
         <v>0.39</v>
       </c>
       <c r="I78" s="7">
-        <v>1454.5756572809721</v>
+        <v>704.22756130492826</v>
       </c>
       <c r="J78" s="7">
+        <f>((H78/(1-0.1*K78))-H78)*1000*C78</f>
+        <v>28035.513307984798</v>
+      </c>
+      <c r="K78" s="7">
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>165</v>
       </c>
@@ -4470,13 +4784,17 @@
         <v>0.47</v>
       </c>
       <c r="I79" s="7">
-        <v>1855.2317541527514</v>
+        <v>1013.1617190620385</v>
       </c>
       <c r="J79" s="7">
+        <f>((H79/(1-0.1*K79))-H79)*1000*C79</f>
+        <v>40895.747594977991</v>
+      </c>
+      <c r="K79" s="7">
         <v>3.867</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>167</v>
       </c>
@@ -4502,13 +4820,17 @@
         <v>0.47</v>
       </c>
       <c r="I80" s="7">
-        <v>271.62276134229944</v>
+        <v>281.70776380569959</v>
       </c>
       <c r="J80" s="7">
+        <f>((H80/(1-0.1*K80))-H80)*1000*C80</f>
+        <v>7926.0834088848615</v>
+      </c>
+      <c r="K80" s="7">
         <v>3.3820000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>168</v>
       </c>
@@ -4534,13 +4856,17 @@
         <v>0.69</v>
       </c>
       <c r="I81" s="7">
-        <v>254.75228939128013</v>
+        <v>1454.5756572809721</v>
       </c>
       <c r="J81" s="7">
+        <f>((H81/(1-0.1*K81))-H81)*1000*C81</f>
+        <v>33459.980500974954</v>
+      </c>
+      <c r="K81" s="7">
         <v>3.3330000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>180</v>
       </c>
@@ -4566,13 +4892,17 @@
         <v>0.62</v>
       </c>
       <c r="I82" s="7">
-        <v>546.54698927316622</v>
+        <v>1855.2317541527514</v>
       </c>
       <c r="J82" s="7">
+        <f>((H82/(1-0.1*K82))-H82)*1000*C82</f>
+        <v>53081.446480231447</v>
+      </c>
+      <c r="K82" s="7">
         <v>3.778</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>192</v>
       </c>
@@ -4598,13 +4928,17 @@
         <v>0.86</v>
       </c>
       <c r="I83" s="7">
-        <v>449.12879983586839</v>
+        <v>271.62276134229944</v>
       </c>
       <c r="J83" s="7">
+        <f>((H83/(1-0.1*K83))-H83)*1000*C83</f>
+        <v>15587.628128724673</v>
+      </c>
+      <c r="K83" s="7">
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>203</v>
       </c>
@@ -4630,13 +4964,17 @@
         <v>0.41</v>
       </c>
       <c r="I84" s="7">
-        <v>856.0443852664572</v>
+        <v>254.75228939128013</v>
       </c>
       <c r="J84" s="7">
+        <f>((H84/(1-0.1*K84))-H84)*1000*C84</f>
+        <v>4230.0362854455043</v>
+      </c>
+      <c r="K84" s="7">
         <v>2.5590000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>208</v>
       </c>
@@ -4662,13 +5000,17 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I85" s="7">
-        <v>1512.5966178772671</v>
+        <v>546.54698927316622</v>
       </c>
       <c r="J85" s="7">
+        <f>((H85/(1-0.1*K85))-H85)*1000*C85</f>
+        <v>48885.94377510043</v>
+      </c>
+      <c r="K85" s="7">
         <v>4.024</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>216</v>
       </c>
@@ -4694,13 +5036,17 @@
         <v>0.37</v>
       </c>
       <c r="I86" s="7">
-        <v>1393.651028034657</v>
+        <v>449.12879983586839</v>
       </c>
       <c r="J86" s="7">
+        <f>((H86/(1-0.1*K86))-H86)*1000*C86</f>
+        <v>23747.912122156442</v>
+      </c>
+      <c r="K86" s="7">
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>224</v>
       </c>
@@ -4726,13 +5072,17 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I87" s="7">
-        <v>1995.0701529716628</v>
+        <v>856.0443852664572</v>
       </c>
       <c r="J87" s="7">
+        <f>((H87/(1-0.1*K87))-H87)*1000*C87</f>
+        <v>18479.01580674023</v>
+      </c>
+      <c r="K87" s="7">
         <v>3.294</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>230</v>
       </c>
@@ -4758,13 +5108,17 @@
         <v>0.63</v>
       </c>
       <c r="I88" s="7">
-        <v>478.50021471399782</v>
+        <v>1512.5966178772671</v>
       </c>
       <c r="J88" s="7">
+        <f>((H88/(1-0.1*K88))-H88)*1000*C88</f>
+        <v>43162.105263157886</v>
+      </c>
+      <c r="K88" s="7">
         <v>3.35</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>242</v>
       </c>
@@ -4790,13 +5144,17 @@
         <v>0.9</v>
       </c>
       <c r="I89" s="7">
-        <v>1038.1108231741227</v>
+        <v>1393.651028034657</v>
       </c>
       <c r="J89" s="7">
+        <f>((H89/(1-0.1*K89))-H89)*1000*C89</f>
+        <v>72362.720403022686</v>
+      </c>
+      <c r="K89" s="7">
         <v>3.6480000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>39</v>
       </c>
@@ -4822,13 +5180,17 @@
         <v>0.9</v>
       </c>
       <c r="I90" s="7">
-        <v>807.8751673623168</v>
+        <v>1995.0701529716628</v>
       </c>
       <c r="J90" s="7">
+        <f>((H90/(1-0.1*K90))-H90)*1000*C90</f>
+        <v>50063.699582753812</v>
+      </c>
+      <c r="K90" s="7">
         <v>3.5289999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -4854,13 +5216,17 @@
         <v>0.9</v>
       </c>
       <c r="I91" s="7">
-        <v>669.40713892796464</v>
+        <v>478.50021471399782</v>
       </c>
       <c r="J91" s="7">
+        <f>((H91/(1-0.1*K91))-H91)*1000*C91</f>
+        <v>14530.29721955897</v>
+      </c>
+      <c r="K91" s="7">
         <v>3.742</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>42</v>
       </c>
@@ -4886,13 +5252,17 @@
         <v>0.66</v>
       </c>
       <c r="I92" s="7">
-        <v>473.88068140426861</v>
+        <v>1038.1108231741227</v>
       </c>
       <c r="J92" s="7">
+        <f>((H92/(1-0.1*K92))-H92)*1000*C92</f>
+        <v>20621.057864935789</v>
+      </c>
+      <c r="K92" s="7">
         <v>2.7589999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>45</v>
       </c>
@@ -4918,13 +5288,17 @@
         <v>0.53</v>
       </c>
       <c r="I93" s="7">
-        <v>685.55243503435395</v>
+        <v>226.82861994793458</v>
       </c>
       <c r="J93" s="7">
+        <f>((H93/(1-0.1*K93))-H93)*1000*C93</f>
+        <v>11287.658761738026</v>
+      </c>
+      <c r="K93" s="7">
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>85</v>
       </c>
@@ -4950,13 +5324,17 @@
         <v>0.45</v>
       </c>
       <c r="I94" s="7">
-        <v>564.85966396384765</v>
+        <v>685.55243503435395</v>
       </c>
       <c r="J94" s="7">
+        <f>((H94/(1-0.1*K94))-H94)*1000*C94</f>
+        <v>22497.252747252747</v>
+      </c>
+      <c r="K94" s="7">
         <v>3.448</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>90</v>
       </c>
@@ -4982,13 +5360,17 @@
         <v>0.54</v>
       </c>
       <c r="I95" s="7">
-        <v>226.82861994793458</v>
+        <v>377.08597541389054</v>
       </c>
       <c r="J95" s="7">
+        <f>((H95/(1-0.1*K95))-H95)*1000*C95</f>
+        <v>25762.763466042165</v>
+      </c>
+      <c r="K95" s="7">
         <v>3.5950000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>108</v>
       </c>
@@ -5014,13 +5396,17 @@
         <v>0.41</v>
       </c>
       <c r="I96" s="7">
-        <v>377.08597541389054</v>
+        <v>467.80087520636852</v>
       </c>
       <c r="J96" s="7">
+        <f>((H96/(1-0.1*K96))-H96)*1000*C96</f>
+        <v>9785.0180245133379</v>
+      </c>
+      <c r="K96" s="7">
         <v>3.0649999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>22</v>
       </c>
@@ -5046,13 +5432,17 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I97" s="7">
-        <v>444.62892263467427</v>
+        <v>694.46017112936011</v>
       </c>
       <c r="J97" s="7">
+        <f>((H97/(1-0.1*K97))-H97)*1000*C97</f>
+        <v>27464.733861834669</v>
+      </c>
+      <c r="K97" s="7">
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>119</v>
       </c>
@@ -5078,13 +5468,17 @@
         <v>0.79</v>
       </c>
       <c r="I98" s="7">
-        <v>694.46017112936011</v>
+        <v>428.75900359933183</v>
       </c>
       <c r="J98" s="7">
+        <f>((H98/(1-0.1*K98))-H98)*1000*C98</f>
+        <v>11067.951114306254</v>
+      </c>
+      <c r="K98" s="7">
         <v>3.0449999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>20</v>
       </c>
@@ -5110,13 +5504,17 @@
         <v>0.73</v>
       </c>
       <c r="I99" s="7">
-        <v>467.80087520636852</v>
+        <v>616.97315067867908</v>
       </c>
       <c r="J99" s="7">
+        <f>((H99/(1-0.1*K99))-H99)*1000*C99</f>
+        <v>13646.661775495231</v>
+      </c>
+      <c r="K99" s="7">
         <v>3.1850000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>126</v>
       </c>
@@ -5142,13 +5540,17 @@
         <v>0.64</v>
       </c>
       <c r="I100" s="7">
-        <v>876.62121092257087</v>
+        <v>401.23753573442667</v>
       </c>
       <c r="J100" s="7">
+        <f>((H100/(1-0.1*K100))-H100)*1000*C100</f>
+        <v>15752.499588070519</v>
+      </c>
+      <c r="K100" s="7">
         <v>3.931</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>128</v>
       </c>
@@ -5177,10 +5579,14 @@
         <v>378.04769991322587</v>
       </c>
       <c r="J101" s="7">
+        <f>((H101/(1-0.1*K101))-H101)*1000*C101</f>
+        <v>15911.927981995501</v>
+      </c>
+      <c r="K101" s="7">
         <v>3.335</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>131</v>
       </c>
@@ -5206,13 +5612,17 @@
         <v>0.62</v>
       </c>
       <c r="I102" s="7">
-        <v>1205.9245073961181</v>
+        <v>987.67933675442873</v>
       </c>
       <c r="J102" s="7">
+        <f>((H102/(1-0.1*K102))-H102)*1000*C102</f>
+        <v>43914.802812595553</v>
+      </c>
+      <c r="K102" s="7">
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>153</v>
       </c>
@@ -5238,13 +5648,17 @@
         <v>0.62</v>
       </c>
       <c r="I103" s="7">
-        <v>987.67933675442873</v>
+        <v>543.35642991249574</v>
       </c>
       <c r="J103" s="7">
+        <f>((H103/(1-0.1*K103))-H103)*1000*C103</f>
+        <v>17222.632403635223</v>
+      </c>
+      <c r="K103" s="7">
         <v>3.6179999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>174</v>
       </c>
@@ -5270,13 +5684,17 @@
         <v>0.44</v>
       </c>
       <c r="I104" s="7">
-        <v>543.35642991249574</v>
+        <v>444.62892263467427</v>
       </c>
       <c r="J104" s="7">
+        <f>((H104/(1-0.1*K104))-H104)*1000*C104</f>
+        <v>9626.6740118441012</v>
+      </c>
+      <c r="K104" s="7">
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>181</v>
       </c>
@@ -5302,13 +5720,17 @@
         <v>0.76</v>
       </c>
       <c r="I105" s="7">
-        <v>933.54868343555063</v>
+        <v>263.68244434915147</v>
       </c>
       <c r="J105" s="7">
+        <f>((H105/(1-0.1*K105))-H105)*1000*C105</f>
+        <v>17152.010010949478</v>
+      </c>
+      <c r="K105" s="7">
         <v>3.6070000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>200</v>
       </c>
@@ -5334,13 +5756,17 @@
         <v>0.7</v>
       </c>
       <c r="I106" s="7">
-        <v>401.23753573442667</v>
+        <v>722.19579929378733</v>
       </c>
       <c r="J106" s="7">
+        <f>((H106/(1-0.1*K106))-H106)*1000*C106</f>
+        <v>51084.60585411184</v>
+      </c>
+      <c r="K106" s="7">
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>205</v>
       </c>
@@ -5366,13 +5792,17 @@
         <v>0.74</v>
       </c>
       <c r="I107" s="7">
-        <v>783.41870621934606</v>
+        <v>1542.6934327556719</v>
       </c>
       <c r="J107" s="7">
+        <f>((H107/(1-0.1*K107))-H107)*1000*C107</f>
+        <v>44422.715977196342</v>
+      </c>
+      <c r="K107" s="7">
         <v>3.1589999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>223</v>
       </c>
@@ -5398,13 +5828,17 @@
         <v>0.61</v>
       </c>
       <c r="I108" s="7">
-        <v>1409.0148726391933</v>
+        <v>1205.9245073961181</v>
       </c>
       <c r="J108" s="7">
+        <f>((H108/(1-0.1*K108))-H108)*1000*C108</f>
+        <v>26593.646775165762</v>
+      </c>
+      <c r="K108" s="7">
         <v>3.3639999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>229</v>
       </c>
@@ -5430,13 +5864,17 @@
         <v>0.64</v>
       </c>
       <c r="I109" s="7">
-        <v>722.19579929378733</v>
+        <v>783.41870621934606</v>
       </c>
       <c r="J109" s="7">
+        <f>((H109/(1-0.1*K109))-H109)*1000*C109</f>
+        <v>45061.145633927255</v>
+      </c>
+      <c r="K109" s="7">
         <v>3.2090000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>234</v>
       </c>
@@ -5462,13 +5900,17 @@
         <v>0.63</v>
       </c>
       <c r="I110" s="7">
-        <v>616.97315067867908</v>
+        <v>933.54868343555063</v>
       </c>
       <c r="J110" s="7">
+        <f>((H110/(1-0.1*K110))-H110)*1000*C110</f>
+        <v>43910.585774058571</v>
+      </c>
+      <c r="K110" s="7">
         <v>3.3079999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>233</v>
       </c>
@@ -5494,13 +5936,17 @@
         <v>0.88</v>
       </c>
       <c r="I111" s="7">
-        <v>1207.8361240882653</v>
+        <v>531.97987447330956</v>
       </c>
       <c r="J111" s="7">
+        <f>((H111/(1-0.1*K111))-H111)*1000*C111</f>
+        <v>23001.058201058204</v>
+      </c>
+      <c r="K111" s="7">
         <v>3.952</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>241</v>
       </c>
@@ -5526,13 +5972,17 @@
         <v>0.76</v>
       </c>
       <c r="I112" s="7">
-        <v>1542.6934327556719</v>
+        <v>767.81872723848198</v>
       </c>
       <c r="J112" s="7">
+        <f>((H112/(1-0.1*K112))-H112)*1000*C112</f>
+        <v>30265.911539089277</v>
+      </c>
+      <c r="K112" s="7">
         <v>3.8730000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>247</v>
       </c>
@@ -5558,13 +6008,17 @@
         <v>0.49</v>
       </c>
       <c r="I113" s="7">
-        <v>767.81872723848198</v>
+        <v>564.85966396384765</v>
       </c>
       <c r="J113" s="7">
+        <f>((H113/(1-0.1*K113))-H113)*1000*C113</f>
+        <v>17803.425042111183</v>
+      </c>
+      <c r="K113" s="7">
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>246</v>
       </c>
@@ -5590,13 +6044,17 @@
         <v>0.68</v>
       </c>
       <c r="I114" s="7">
-        <v>263.68244434915147</v>
+        <v>1409.0148726391933</v>
       </c>
       <c r="J114" s="7">
+        <f>((H114/(1-0.1*K114))-H114)*1000*C114</f>
+        <v>28955.506143943829</v>
+      </c>
+      <c r="K114" s="7">
         <v>3.1640000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>251</v>
       </c>
@@ -5622,13 +6080,17 @@
         <v>0.72</v>
       </c>
       <c r="I115" s="7">
-        <v>428.75900359933183</v>
+        <v>1207.8361240882653</v>
       </c>
       <c r="J115" s="7">
+        <f>((H115/(1-0.1*K115))-H115)*1000*C115</f>
+        <v>41465.176184690172</v>
+      </c>
+      <c r="K115" s="7">
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>255</v>
       </c>
@@ -5657,10 +6119,14 @@
         <v>456.63278504193113</v>
       </c>
       <c r="J116" s="7">
+        <f>((H116/(1-0.1*K116))-H116)*1000*C116</f>
+        <v>14989.811701412236</v>
+      </c>
+      <c r="K116" s="7">
         <v>2.5649999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>266</v>
       </c>
@@ -5686,13 +6152,17 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I117" s="7">
-        <v>531.97987447330956</v>
+        <v>876.62121092257087</v>
       </c>
       <c r="J117" s="7">
+        <f>((H117/(1-0.1*K117))-H117)*1000*C117</f>
+        <v>32162.675290313102</v>
+      </c>
+      <c r="K117" s="7">
         <v>3.1970000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>54</v>
       </c>
@@ -5718,13 +6188,17 @@
         <v>0.72</v>
       </c>
       <c r="I118" s="7">
-        <v>504.69453360122276</v>
+        <v>947.0999687224114</v>
       </c>
       <c r="J118" s="7">
+        <f>((H118/(1-0.1*K118))-H118)*1000*C118</f>
+        <v>50076.006154898263</v>
+      </c>
+      <c r="K118" s="7">
         <v>4.1509999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>63</v>
       </c>
@@ -5750,13 +6224,17 @@
         <v>0.66</v>
       </c>
       <c r="I119" s="7">
-        <v>304.15154217243918</v>
+        <v>717.32218410625421</v>
       </c>
       <c r="J119" s="7">
+        <f>((H119/(1-0.1*K119))-H119)*1000*C119</f>
+        <v>20395.366319189543</v>
+      </c>
+      <c r="K119" s="7">
         <v>3.1890000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>64</v>
       </c>
@@ -5782,13 +6260,17 @@
         <v>0.54</v>
       </c>
       <c r="I120" s="7">
-        <v>963.38892493507024</v>
+        <v>504.69453360122276</v>
       </c>
       <c r="J120" s="7">
+        <f>((H120/(1-0.1*K120))-H120)*1000*C120</f>
+        <v>18174.160789844849</v>
+      </c>
+      <c r="K120" s="7">
         <v>2.91</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>74</v>
       </c>
@@ -5814,13 +6296,17 @@
         <v>0.38</v>
       </c>
       <c r="I121" s="7">
-        <v>398.31018434189059</v>
+        <v>304.15154217243918</v>
       </c>
       <c r="J121" s="7">
+        <f>((H121/(1-0.1*K121))-H121)*1000*C121</f>
+        <v>23176.452742123689</v>
+      </c>
+      <c r="K121" s="7">
         <v>3.1440000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>78</v>
       </c>
@@ -5846,13 +6332,17 @@
         <v>0.67</v>
       </c>
       <c r="I122" s="7">
-        <v>453.68815671470151</v>
+        <v>963.38892493507024</v>
       </c>
       <c r="J122" s="7">
+        <f>((H122/(1-0.1*K122))-H122)*1000*C122</f>
+        <v>44153.767329716706</v>
+      </c>
+      <c r="K122" s="7">
         <v>3.3639999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>89</v>
       </c>
@@ -5878,13 +6368,17 @@
         <v>0.44</v>
       </c>
       <c r="I123" s="7">
-        <v>220.26673999785694</v>
+        <v>398.31018434189059</v>
       </c>
       <c r="J123" s="7">
+        <f>((H123/(1-0.1*K123))-H123)*1000*C123</f>
+        <v>26817.319587628863</v>
+      </c>
+      <c r="K123" s="7">
         <v>3.6949999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>110</v>
       </c>
@@ -5910,13 +6404,17 @@
         <v>0.46</v>
       </c>
       <c r="I124" s="7">
-        <v>622.38609931861583</v>
+        <v>453.68815671470151</v>
       </c>
       <c r="J124" s="7">
+        <f>((H124/(1-0.1*K124))-H124)*1000*C124</f>
+        <v>32986.957322689595</v>
+      </c>
+      <c r="K124" s="7">
         <v>3.4860000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>121</v>
       </c>
@@ -5942,13 +6440,17 @@
         <v>0.89</v>
       </c>
       <c r="I125" s="7">
-        <v>928.5245056891107</v>
+        <v>220.26673999785694</v>
       </c>
       <c r="J125" s="7">
+        <f>((H125/(1-0.1*K125))-H125)*1000*C125</f>
+        <v>20354.789644012952</v>
+      </c>
+      <c r="K125" s="7">
         <v>3.82</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>127</v>
       </c>
@@ -5974,13 +6476,17 @@
         <v>0.76</v>
       </c>
       <c r="I126" s="7">
-        <v>641.06109617259779</v>
+        <v>622.38609931861583</v>
       </c>
       <c r="J126" s="7">
+        <f>((H126/(1-0.1*K126))-H126)*1000*C126</f>
+        <v>24323.047313552535</v>
+      </c>
+      <c r="K126" s="7">
         <v>3.7650000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>141</v>
       </c>
@@ -6006,13 +6512,17 @@
         <v>0.89</v>
       </c>
       <c r="I127" s="7">
-        <v>131.36604000437563</v>
+        <v>928.5245056891107</v>
       </c>
       <c r="J127" s="7">
+        <f>((H127/(1-0.1*K127))-H127)*1000*C127</f>
+        <v>32262.765196662687</v>
+      </c>
+      <c r="K127" s="7">
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>158</v>
       </c>
@@ -6038,13 +6548,17 @@
         <v>0.78</v>
       </c>
       <c r="I128" s="7">
-        <v>355.61132448866522</v>
+        <v>641.06109617259779</v>
       </c>
       <c r="J128" s="7">
+        <f>((H128/(1-0.1*K128))-H128)*1000*C128</f>
+        <v>55036.890028855436</v>
+      </c>
+      <c r="K128" s="7">
         <v>3.762</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>166</v>
       </c>
@@ -6070,13 +6584,17 @@
         <v>0.35</v>
       </c>
       <c r="I129" s="7">
-        <v>472.46289390232943</v>
+        <v>131.36604000437563</v>
       </c>
       <c r="J129" s="7">
+        <f>((H129/(1-0.1*K129))-H129)*1000*C129</f>
+        <v>7206.7979669631532</v>
+      </c>
+      <c r="K129" s="7">
         <v>3.7040000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>177</v>
       </c>
@@ -6102,13 +6620,17 @@
         <v>0.48</v>
       </c>
       <c r="I130" s="7">
-        <v>613.75516595139129</v>
+        <v>355.61132448866522</v>
       </c>
       <c r="J130" s="7">
+        <f>((H130/(1-0.1*K130))-H130)*1000*C130</f>
+        <v>14367.401781802253</v>
+      </c>
+      <c r="K130" s="7">
         <v>3.153</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>183</v>
       </c>
@@ -6134,13 +6656,17 @@
         <v>0.39</v>
       </c>
       <c r="I131" s="7">
-        <v>1460.0042434081809</v>
+        <v>472.46289390232943</v>
       </c>
       <c r="J131" s="7">
+        <f>((H131/(1-0.1*K131))-H131)*1000*C131</f>
+        <v>19575.051546391747</v>
+      </c>
+      <c r="K131" s="7">
         <v>2.7250000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>188</v>
       </c>
@@ -6166,13 +6692,17 @@
         <v>0.62</v>
       </c>
       <c r="I132" s="7">
-        <v>692.22504358089634</v>
+        <v>613.75516595139129</v>
       </c>
       <c r="J132" s="7">
+        <f>((H132/(1-0.1*K132))-H132)*1000*C132</f>
+        <v>24367.100591715989</v>
+      </c>
+      <c r="K132" s="7">
         <v>3.24</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>189</v>
       </c>
@@ -6198,13 +6728,17 @@
         <v>0.62</v>
       </c>
       <c r="I133" s="7">
-        <v>1097.3957550306868</v>
+        <v>1460.0042434081809</v>
       </c>
       <c r="J133" s="7">
+        <f>((H133/(1-0.1*K133))-H133)*1000*C133</f>
+        <v>36956.321904222168</v>
+      </c>
+      <c r="K133" s="7">
         <v>2.9420000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>194</v>
       </c>
@@ -6230,13 +6764,17 @@
         <v>0.63</v>
       </c>
       <c r="I134" s="7">
-        <v>443.03882682013608</v>
+        <v>1097.3957550306868</v>
       </c>
       <c r="J134" s="7">
+        <f>((H134/(1-0.1*K134))-H134)*1000*C134</f>
+        <v>42217.656781720951</v>
+      </c>
+      <c r="K134" s="7">
         <v>3.8290000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
@@ -6262,13 +6800,17 @@
         <v>0.47</v>
       </c>
       <c r="I135" s="7">
-        <v>947.0999687224114</v>
+        <v>692.22504358089634</v>
       </c>
       <c r="J135" s="7">
+        <f>((H135/(1-0.1*K135))-H135)*1000*C135</f>
+        <v>26872.072257306492</v>
+      </c>
+      <c r="K135" s="7">
         <v>3.1909999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>215</v>
       </c>
@@ -6294,13 +6836,17 @@
         <v>0.53</v>
       </c>
       <c r="I136" s="7">
-        <v>512.51169818927076</v>
+        <v>443.03882682013608</v>
       </c>
       <c r="J136" s="7">
+        <f>((H136/(1-0.1*K136))-H136)*1000*C136</f>
+        <v>21792.755651237898</v>
+      </c>
+      <c r="K136" s="7">
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>217</v>
       </c>
@@ -6326,13 +6872,17 @@
         <v>0.64</v>
       </c>
       <c r="I137" s="7">
-        <v>285.87495675125274</v>
+        <v>512.51169818927076</v>
       </c>
       <c r="J137" s="7">
+        <f>((H137/(1-0.1*K137))-H137)*1000*C137</f>
+        <v>36638.918431726008</v>
+      </c>
+      <c r="K137" s="7">
         <v>3.343</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>220</v>
       </c>
@@ -6358,13 +6908,17 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I138" s="7">
-        <v>796.76664035377871</v>
+        <v>285.87495675125274</v>
       </c>
       <c r="J138" s="7">
+        <f>((H138/(1-0.1*K138))-H138)*1000*C138</f>
+        <v>8020.1169590643312</v>
+      </c>
+      <c r="K138" s="7">
         <v>3.16</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>34</v>
       </c>
@@ -6390,13 +6944,17 @@
         <v>0.53</v>
       </c>
       <c r="I139" s="7">
-        <v>717.32218410625421</v>
+        <v>796.76664035377871</v>
       </c>
       <c r="J139" s="7">
+        <f>((H139/(1-0.1*K139))-H139)*1000*C139</f>
+        <v>25258.67426942266</v>
+      </c>
+      <c r="K139" s="7">
         <v>2.9849999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>226</v>
       </c>
@@ -6425,10 +6983,14 @@
         <v>412.37236282051128</v>
       </c>
       <c r="J140" s="7">
+        <f>((H140/(1-0.1*K140))-H140)*1000*C140</f>
+        <v>17206.454183266935</v>
+      </c>
+      <c r="K140" s="7">
         <v>3.2229999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>239</v>
       </c>
@@ -6454,13 +7016,17 @@
         <v>0.64</v>
       </c>
       <c r="I141" s="7">
-        <v>296.03267015259627</v>
+        <v>795.11044860030165</v>
       </c>
       <c r="J141" s="7">
+        <f>((H141/(1-0.1*K141))-H141)*1000*C141</f>
+        <v>30845.710989327948</v>
+      </c>
+      <c r="K141" s="7">
         <v>3.0659999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>238</v>
       </c>
@@ -6489,10 +7055,14 @@
         <v>311.57594254068056</v>
       </c>
       <c r="J142" s="7">
+        <f>((H142/(1-0.1*K142))-H142)*1000*C142</f>
+        <v>9657.4364132777719</v>
+      </c>
+      <c r="K142" s="7">
         <v>3.0409999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>237</v>
       </c>
@@ -6518,13 +7088,17 @@
         <v>0.77</v>
       </c>
       <c r="I143" s="7">
-        <v>795.11044860030165</v>
+        <v>296.03267015259627</v>
       </c>
       <c r="J143" s="7">
+        <f>((H143/(1-0.1*K143))-H143)*1000*C143</f>
+        <v>21856.975799627689</v>
+      </c>
+      <c r="K143" s="7">
         <v>4.0910000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>248</v>
       </c>
@@ -6553,10 +7127,14 @@
         <v>412.24537551967597</v>
       </c>
       <c r="J144" s="7">
+        <f>((H144/(1-0.1*K144))-H144)*1000*C144</f>
+        <v>22791.264916467786</v>
+      </c>
+      <c r="K144" s="7">
         <v>4.1340000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>260</v>
       </c>
@@ -6585,10 +7163,14 @@
         <v>499.62247625766133</v>
       </c>
       <c r="J145" s="7">
+        <f>((H145/(1-0.1*K145))-H145)*1000*C145</f>
+        <v>14977.401045556384</v>
+      </c>
+      <c r="K145" s="7">
         <v>3.3050000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>264</v>
       </c>
@@ -6617,10 +7199,14 @@
         <v>130.32554234442827</v>
       </c>
       <c r="J146" s="7">
+        <f>((H146/(1-0.1*K146))-H146)*1000*C146</f>
+        <v>13477.67992711813</v>
+      </c>
+      <c r="K146" s="7">
         <v>3.4140000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>43</v>
       </c>
@@ -6646,13 +7232,17 @@
         <v>0.8</v>
       </c>
       <c r="I147" s="7">
-        <v>817.75024428307927</v>
+        <v>1539.5602205003474</v>
       </c>
       <c r="J147" s="7">
+        <f>((H147/(1-0.1*K147))-H147)*1000*C147</f>
+        <v>80029.578675838333</v>
+      </c>
+      <c r="K147" s="7">
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>44</v>
       </c>
@@ -6678,13 +7268,17 @@
         <v>0.45</v>
       </c>
       <c r="I148" s="7">
-        <v>637.57582225546366</v>
+        <v>366.32859021792177</v>
       </c>
       <c r="J148" s="7">
+        <f>((H148/(1-0.1*K148))-H148)*1000*C148</f>
+        <v>18370.273725372233</v>
+      </c>
+      <c r="K148" s="7">
         <v>3.351</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>47</v>
       </c>
@@ -6710,13 +7304,17 @@
         <v>0.46</v>
       </c>
       <c r="I149" s="7">
-        <v>1017.4481098655199</v>
+        <v>817.75024428307927</v>
       </c>
       <c r="J149" s="7">
+        <f>((H149/(1-0.1*K149))-H149)*1000*C149</f>
+        <v>21539.304427761599</v>
+      </c>
+      <c r="K149" s="7">
         <v>3.4729999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>49</v>
       </c>
@@ -6742,13 +7340,17 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I150" s="7">
-        <v>863.25825084986684</v>
+        <v>463.89795262516253</v>
       </c>
       <c r="J150" s="7">
+        <f>((H150/(1-0.1*K150))-H150)*1000*C150</f>
+        <v>11218.862973760934</v>
+      </c>
+      <c r="K150" s="7">
         <v>3.14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>56</v>
       </c>
@@ -6774,13 +7376,17 @@
         <v>0.68</v>
       </c>
       <c r="I151" s="7">
-        <v>512.60967540732679</v>
+        <v>1703.5166847820963</v>
       </c>
       <c r="J151" s="7">
+        <f>((H151/(1-0.1*K151))-H151)*1000*C151</f>
+        <v>39442.933214338846</v>
+      </c>
+      <c r="K151" s="7">
         <v>3.2770000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>55</v>
       </c>
@@ -6806,13 +7412,17 @@
         <v>0.5</v>
       </c>
       <c r="I152" s="7">
-        <v>678.51698629577686</v>
+        <v>752.34902837015454</v>
       </c>
       <c r="J152" s="7">
+        <f>((H152/(1-0.1*K152))-H152)*1000*C152</f>
+        <v>23693.950901939508</v>
+      </c>
+      <c r="K152" s="7">
         <v>2.6269999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>53</v>
       </c>
@@ -6838,13 +7448,17 @@
         <v>0.73</v>
       </c>
       <c r="I153" s="7">
-        <v>872.15086319736383</v>
+        <v>400.68215655139295</v>
       </c>
       <c r="J153" s="7">
+        <f>((H153/(1-0.1*K153))-H153)*1000*C153</f>
+        <v>9953.199059100265</v>
+      </c>
+      <c r="K153" s="7">
         <v>3.198</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>59</v>
       </c>
@@ -6870,13 +7484,17 @@
         <v>0.78</v>
       </c>
       <c r="I154" s="7">
-        <v>849.80788761576957</v>
+        <v>537.92927792278624</v>
       </c>
       <c r="J154" s="7">
+        <f>((H154/(1-0.1*K154))-H154)*1000*C154</f>
+        <v>42527.849237212089</v>
+      </c>
+      <c r="K154" s="7">
         <v>3.3140000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>61</v>
       </c>
@@ -6902,13 +7520,17 @@
         <v>0.52</v>
       </c>
       <c r="I155" s="7">
-        <v>752.34902837015454</v>
+        <v>912.87451897402627</v>
       </c>
       <c r="J155" s="7">
+        <f>((H155/(1-0.1*K155))-H155)*1000*C155</f>
+        <v>25614.535977993346</v>
+      </c>
+      <c r="K155" s="7">
         <v>3.093</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>80</v>
       </c>
@@ -6934,13 +7556,17 @@
         <v>0.75</v>
       </c>
       <c r="I156" s="7">
-        <v>278.20512515946081</v>
+        <v>538.71533972461646</v>
       </c>
       <c r="J156" s="7">
+        <f>((H156/(1-0.1*K156))-H156)*1000*C156</f>
+        <v>24738.474672737622</v>
+      </c>
+      <c r="K156" s="7">
         <v>2.972</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>17</v>
       </c>
@@ -6966,13 +7592,17 @@
         <v>0.37</v>
       </c>
       <c r="I157" s="7">
-        <v>744.18332682954633</v>
+        <v>320.12434651209344</v>
       </c>
       <c r="J157" s="7">
+        <f>((H157/(1-0.1*K157))-H157)*1000*C157</f>
+        <v>22726.127167630057</v>
+      </c>
+      <c r="K157" s="7">
         <v>3.08</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>94</v>
       </c>
@@ -6998,13 +7628,17 @@
         <v>0.73</v>
       </c>
       <c r="I158" s="7">
-        <v>380.18918105560238</v>
+        <v>916.61988584508424</v>
       </c>
       <c r="J158" s="7">
+        <f>((H158/(1-0.1*K158))-H158)*1000*C158</f>
+        <v>37659.971839336002</v>
+      </c>
+      <c r="K158" s="7">
         <v>3.2530000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>93</v>
       </c>
@@ -7030,13 +7664,17 @@
         <v>0.61</v>
       </c>
       <c r="I159" s="7">
-        <v>912.87451897402627</v>
+        <v>1051.950449727334</v>
       </c>
       <c r="J159" s="7">
+        <f>((H159/(1-0.1*K159))-H159)*1000*C159</f>
+        <v>35020.996813837053</v>
+      </c>
+      <c r="K159" s="7">
         <v>3.4089999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>19</v>
       </c>
@@ -7062,13 +7700,17 @@
         <v>0.65</v>
       </c>
       <c r="I160" s="7">
-        <v>320.12434651209344</v>
+        <v>566.03214666174347</v>
       </c>
       <c r="J160" s="7">
+        <f>((H160/(1-0.1*K160))-H160)*1000*C160</f>
+        <v>13438.266199649735</v>
+      </c>
+      <c r="K160" s="7">
         <v>3.1480000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>96</v>
       </c>
@@ -7094,13 +7736,17 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I161" s="7">
-        <v>310.97717289584881</v>
+        <v>659.97587824911818</v>
       </c>
       <c r="J161" s="7">
+        <f>((H161/(1-0.1*K161))-H161)*1000*C161</f>
+        <v>10826.779227768064</v>
+      </c>
+      <c r="K161" s="7">
         <v>2.5670000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>97</v>
       </c>
@@ -7126,13 +7772,17 @@
         <v>0.89</v>
       </c>
       <c r="I162" s="7">
-        <v>680.04586181671084</v>
+        <v>884.39092782200396</v>
       </c>
       <c r="J162" s="7">
+        <f>((H162/(1-0.1*K162))-H162)*1000*C162</f>
+        <v>45046.849876948327</v>
+      </c>
+      <c r="K162" s="7">
         <v>3.9049999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>116</v>
       </c>
@@ -7158,13 +7808,17 @@
         <v>0.75</v>
       </c>
       <c r="I163" s="7">
-        <v>659.97587824911818</v>
+        <v>952.81770420305145</v>
       </c>
       <c r="J163" s="7">
+        <f>((H163/(1-0.1*K163))-H163)*1000*C163</f>
+        <v>44145.536562203248</v>
+      </c>
+      <c r="K163" s="7">
         <v>3.6819999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>122</v>
       </c>
@@ -7190,13 +7844,17 @@
         <v>0.53</v>
       </c>
       <c r="I164" s="7">
-        <v>463.89795262516253</v>
+        <v>310.97717289584881</v>
       </c>
       <c r="J164" s="7">
+        <f>((H164/(1-0.1*K164))-H164)*1000*C164</f>
+        <v>10855.511700028192</v>
+      </c>
+      <c r="K164" s="7">
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>130</v>
       </c>
@@ -7222,13 +7880,17 @@
         <v>0.66</v>
       </c>
       <c r="I165" s="7">
-        <v>836.52298491202259</v>
+        <v>1025.3836904741465</v>
       </c>
       <c r="J165" s="7">
+        <f>((H165/(1-0.1*K165))-H165)*1000*C165</f>
+        <v>28841.212817933614</v>
+      </c>
+      <c r="K165" s="7">
         <v>3.0409999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>136</v>
       </c>
@@ -7254,13 +7916,17 @@
         <v>0.6</v>
       </c>
       <c r="I166" s="7">
-        <v>1051.950449727334</v>
+        <v>836.52298491202259</v>
       </c>
       <c r="J166" s="7">
+        <f>((H166/(1-0.1*K166))-H166)*1000*C166</f>
+        <v>29335.98673300166</v>
+      </c>
+      <c r="K166" s="7">
         <v>2.7639999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>150</v>
       </c>
@@ -7286,13 +7952,17 @@
         <v>0.85</v>
       </c>
       <c r="I167" s="7">
-        <v>1157.8198221477414</v>
+        <v>881.14382324180542</v>
       </c>
       <c r="J167" s="7">
+        <f>((H167/(1-0.1*K167))-H167)*1000*C167</f>
+        <v>55217.340178867205</v>
+      </c>
+      <c r="K167" s="7">
         <v>3.9620000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>161</v>
       </c>
@@ -7318,13 +7988,17 @@
         <v>0.78</v>
       </c>
       <c r="I168" s="7">
-        <v>945.7569162846404</v>
+        <v>489.76107968513463</v>
       </c>
       <c r="J168" s="7">
+        <f>((H168/(1-0.1*K168))-H168)*1000*C168</f>
+        <v>29251.552868308525</v>
+      </c>
+      <c r="K168" s="7">
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>162</v>
       </c>
@@ -7350,13 +8024,17 @@
         <v>0.82</v>
       </c>
       <c r="I169" s="7">
-        <v>340.86692627894433</v>
+        <v>858.06371676798585</v>
       </c>
       <c r="J169" s="7">
+        <f>((H169/(1-0.1*K169))-H169)*1000*C169</f>
+        <v>53686.960870844385</v>
+      </c>
+      <c r="K169" s="7">
         <v>3.202</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>163</v>
       </c>
@@ -7382,13 +8060,17 @@
         <v>0.89</v>
       </c>
       <c r="I170" s="7">
-        <v>793.58491983841304</v>
+        <v>680.92944179829738</v>
       </c>
       <c r="J170" s="7">
+        <f>((H170/(1-0.1*K170))-H170)*1000*C170</f>
+        <v>27702.282003710567</v>
+      </c>
+      <c r="K170" s="7">
         <v>3.532</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>26</v>
       </c>
@@ -7414,13 +8096,17 @@
         <v>0.67</v>
       </c>
       <c r="I171" s="7">
-        <v>412.82701666555641</v>
+        <v>1176.2037071396169</v>
       </c>
       <c r="J171" s="7">
+        <f>((H171/(1-0.1*K171))-H171)*1000*C171</f>
+        <v>31917.655488678705</v>
+      </c>
+      <c r="K171" s="7">
         <v>3.0219999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>27</v>
       </c>
@@ -7446,13 +8132,17 @@
         <v>0.53</v>
       </c>
       <c r="I172" s="7">
-        <v>305.8806729252733</v>
+        <v>680.04586181671084</v>
       </c>
       <c r="J172" s="7">
+        <f>((H172/(1-0.1*K172))-H172)*1000*C172</f>
+        <v>48236.883116883131</v>
+      </c>
+      <c r="K172" s="7">
         <v>3.84</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>179</v>
       </c>
@@ -7478,13 +8168,17 @@
         <v>0.73</v>
       </c>
       <c r="I173" s="7">
-        <v>1105.6367442669969</v>
+        <v>1116.010798349517</v>
       </c>
       <c r="J173" s="7">
+        <f>((H173/(1-0.1*K173))-H173)*1000*C173</f>
+        <v>49512.560046865845</v>
+      </c>
+      <c r="K173" s="7">
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>176</v>
       </c>
@@ -7510,13 +8204,17 @@
         <v>0.47</v>
       </c>
       <c r="I174" s="7">
-        <v>566.03214666174347</v>
+        <v>637.57582225546366</v>
       </c>
       <c r="J174" s="7">
+        <f>((H174/(1-0.1*K174))-H174)*1000*C174</f>
+        <v>20497.874111060675</v>
+      </c>
+      <c r="K174" s="7">
         <v>3.391</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>31</v>
       </c>
@@ -7542,13 +8240,17 @@
         <v>0.68</v>
       </c>
       <c r="I175" s="7">
-        <v>294.70476000652002</v>
+        <v>319.02855891269689</v>
       </c>
       <c r="J175" s="7">
+        <f>((H175/(1-0.1*K175))-H175)*1000*C175</f>
+        <v>20571.36357007438</v>
+      </c>
+      <c r="K175" s="7">
         <v>3.1429999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>187</v>
       </c>
@@ -7574,13 +8276,17 @@
         <v>0.35</v>
       </c>
       <c r="I176" s="7">
-        <v>730.55646548004029</v>
+        <v>744.18332682954633</v>
       </c>
       <c r="J176" s="7">
+        <f>((H176/(1-0.1*K176))-H176)*1000*C176</f>
+        <v>19944.853746285004</v>
+      </c>
+      <c r="K176" s="7">
         <v>3.6070000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>186</v>
       </c>
@@ -7606,13 +8312,17 @@
         <v>0.66</v>
       </c>
       <c r="I177" s="7">
-        <v>1025.3836904741465</v>
+        <v>730.55646548004029</v>
       </c>
       <c r="J177" s="7">
+        <f>((H177/(1-0.1*K177))-H177)*1000*C177</f>
+        <v>39011.273821464383</v>
+      </c>
+      <c r="K177" s="7">
         <v>4.0179999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>207</v>
       </c>
@@ -7638,13 +8348,17 @@
         <v>0.7</v>
       </c>
       <c r="I178" s="7">
-        <v>311.69537700642081</v>
+        <v>1496.9865363595106</v>
       </c>
       <c r="J178" s="7">
+        <f>((H178/(1-0.1*K178))-H178)*1000*C178</f>
+        <v>44405.3926624429</v>
+      </c>
+      <c r="K178" s="7">
         <v>3.2130000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>214</v>
       </c>
@@ -7670,13 +8384,17 @@
         <v>0.87</v>
       </c>
       <c r="I179" s="7">
-        <v>1176.2037071396169</v>
+        <v>1169.7205948837652</v>
       </c>
       <c r="J179" s="7">
+        <f>((H179/(1-0.1*K179))-H179)*1000*C179</f>
+        <v>33618.15215779328</v>
+      </c>
+      <c r="K179" s="7">
         <v>3.2570000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="21" t="s">
         <v>221</v>
       </c>
@@ -7702,14 +8420,18 @@
         <v>0.37</v>
       </c>
       <c r="I180" s="23">
-        <v>256.41894137771624</v>
-      </c>
-      <c r="J180" s="23">
+        <v>412.82701666555641</v>
+      </c>
+      <c r="J180" s="7">
+        <f>((H180/(1-0.1*K180))-H180)*1000*C180</f>
+        <v>7820.4098475311212</v>
+      </c>
+      <c r="K180" s="23">
         <v>2.851</v>
       </c>
-      <c r="L180" s="24"/>
-    </row>
-    <row r="181" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M180" s="24"/>
+    </row>
+    <row r="181" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="21" t="s">
         <v>222</v>
       </c>
@@ -7735,14 +8457,18 @@
         <v>0.41</v>
       </c>
       <c r="I181" s="23">
-        <v>1703.5166847820963</v>
-      </c>
-      <c r="J181" s="23">
+        <v>214.94900149228218</v>
+      </c>
+      <c r="J181" s="7">
+        <f>((H181/(1-0.1*K181))-H181)*1000*C181</f>
+        <v>6019.3236933273101</v>
+      </c>
+      <c r="K181" s="23">
         <v>3.3610000000000002</v>
       </c>
-      <c r="L181" s="24"/>
-    </row>
-    <row r="182" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M181" s="24"/>
+    </row>
+    <row r="182" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="21" t="s">
         <v>228</v>
       </c>
@@ -7768,14 +8494,18 @@
         <v>0.71</v>
       </c>
       <c r="I182" s="23">
-        <v>319.02855891269689</v>
-      </c>
-      <c r="J182" s="23">
+        <v>465.41633067266218</v>
+      </c>
+      <c r="J182" s="7">
+        <f>((H182/(1-0.1*K182))-H182)*1000*C182</f>
+        <v>41428.296107211216</v>
+      </c>
+      <c r="K182" s="23">
         <v>3.7320000000000002</v>
       </c>
-      <c r="L182" s="24"/>
-    </row>
-    <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M182" s="24"/>
+    </row>
+    <row r="183" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="21" t="s">
         <v>316</v>
       </c>
@@ -7801,14 +8531,18 @@
         <v>0.76</v>
       </c>
       <c r="I183" s="23">
-        <v>371.08377492864264</v>
-      </c>
-      <c r="J183" s="23">
+        <v>685.87211115708044</v>
+      </c>
+      <c r="J183" s="7">
+        <f>((H183/(1-0.1*K183))-H183)*1000*C183</f>
+        <v>35815.350553505545</v>
+      </c>
+      <c r="K183" s="23">
         <v>3.2250000000000001</v>
       </c>
-      <c r="L183" s="24"/>
-    </row>
-    <row r="184" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M183" s="24"/>
+    </row>
+    <row r="184" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="21" t="s">
         <v>236</v>
       </c>
@@ -7834,14 +8568,18 @@
         <v>0.47</v>
       </c>
       <c r="I184" s="23">
-        <v>806.18171082415665</v>
-      </c>
-      <c r="J184" s="23">
+        <v>1017.4481098655199</v>
+      </c>
+      <c r="J184" s="7">
+        <f>((H184/(1-0.1*K184))-H184)*1000*C184</f>
+        <v>22286.55986509275</v>
+      </c>
+      <c r="K184" s="23">
         <v>2.8839999999999999</v>
       </c>
-      <c r="L184" s="24"/>
-    </row>
-    <row r="185" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M184" s="24"/>
+    </row>
+    <row r="185" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
         <v>235</v>
       </c>
@@ -7867,14 +8605,18 @@
         <v>0.69</v>
       </c>
       <c r="I185" s="23">
-        <v>1496.9865363595106</v>
-      </c>
-      <c r="J185" s="23">
+        <v>371.08377492864264</v>
+      </c>
+      <c r="J185" s="7">
+        <f>((H185/(1-0.1*K185))-H185)*1000*C185</f>
+        <v>11132.996389891694</v>
+      </c>
+      <c r="K185" s="23">
         <v>3.3519999999999999</v>
       </c>
-      <c r="L185" s="24"/>
-    </row>
-    <row r="186" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M185" s="24"/>
+    </row>
+    <row r="186" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="21" t="s">
         <v>245</v>
       </c>
@@ -7900,14 +8642,18 @@
         <v>0.61</v>
       </c>
       <c r="I186" s="23">
-        <v>465.41633067266218</v>
-      </c>
-      <c r="J186" s="23">
+        <v>1157.8198221477414</v>
+      </c>
+      <c r="J186" s="7">
+        <f>((H186/(1-0.1*K186))-H186)*1000*C186</f>
+        <v>32291.682790570932</v>
+      </c>
+      <c r="K186" s="23">
         <v>2.661</v>
       </c>
-      <c r="L186" s="24"/>
-    </row>
-    <row r="187" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M186" s="24"/>
+    </row>
+    <row r="187" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="21" t="s">
         <v>252</v>
       </c>
@@ -7933,14 +8679,18 @@
         <v>0.64</v>
       </c>
       <c r="I187" s="23">
-        <v>375.64650533902477</v>
-      </c>
-      <c r="J187" s="23">
+        <v>793.58491983841304</v>
+      </c>
+      <c r="J187" s="7">
+        <f>((H187/(1-0.1*K187))-H187)*1000*C187</f>
+        <v>27990.467209601382</v>
+      </c>
+      <c r="K187" s="23">
         <v>3.0009999999999999</v>
       </c>
-      <c r="L187" s="24"/>
-    </row>
-    <row r="188" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M187" s="24"/>
+    </row>
+    <row r="188" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="21" t="s">
         <v>256</v>
       </c>
@@ -7966,14 +8716,18 @@
         <v>0.48</v>
       </c>
       <c r="I188" s="23">
-        <v>416.03458715249974</v>
-      </c>
-      <c r="J188" s="23">
+        <v>863.25825084986684</v>
+      </c>
+      <c r="J188" s="7">
+        <f>((H188/(1-0.1*K188))-H188)*1000*C188</f>
+        <v>28210.146399760979</v>
+      </c>
+      <c r="K188" s="23">
         <v>3.306</v>
       </c>
-      <c r="L188" s="24"/>
-    </row>
-    <row r="189" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M188" s="24"/>
+    </row>
+    <row r="189" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="21" t="s">
         <v>259</v>
       </c>
@@ -7999,14 +8753,18 @@
         <v>0.82</v>
       </c>
       <c r="I189" s="23">
-        <v>400.68215655139295</v>
-      </c>
-      <c r="J189" s="23">
+        <v>1385.8476649556362</v>
+      </c>
+      <c r="J189" s="7">
+        <f>((H189/(1-0.1*K189))-H189)*1000*C189</f>
+        <v>45555.29546103342</v>
+      </c>
+      <c r="K189" s="23">
         <v>2.9940000000000002</v>
       </c>
-      <c r="L189" s="24"/>
-    </row>
-    <row r="190" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M189" s="24"/>
+    </row>
+    <row r="190" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="21" t="s">
         <v>38</v>
       </c>
@@ -8032,14 +8790,18 @@
         <v>0.49</v>
       </c>
       <c r="I190" s="23">
-        <v>298.80584546079984</v>
-      </c>
-      <c r="J190" s="23">
+        <v>678.51698629577686</v>
+      </c>
+      <c r="J190" s="7">
+        <f>((H190/(1-0.1*K190))-H190)*1000*C190</f>
+        <v>33321.23581336697</v>
+      </c>
+      <c r="K190" s="23">
         <v>3.6560000000000001</v>
       </c>
-      <c r="L190" s="24"/>
-    </row>
-    <row r="191" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M190" s="24"/>
+    </row>
+    <row r="191" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="21" t="s">
         <v>261</v>
       </c>
@@ -8065,14 +8827,18 @@
         <v>0.48</v>
       </c>
       <c r="I191" s="23">
-        <v>916.61988584508424</v>
-      </c>
-      <c r="J191" s="23">
+        <v>872.15086319736383</v>
+      </c>
+      <c r="J191" s="7">
+        <f>((H191/(1-0.1*K191))-H191)*1000*C191</f>
+        <v>34932.658227848107</v>
+      </c>
+      <c r="K191" s="23">
         <v>4.3120000000000003</v>
       </c>
-      <c r="L191" s="24"/>
-    </row>
-    <row r="192" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M191" s="24"/>
+    </row>
+    <row r="192" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="21" t="s">
         <v>37</v>
       </c>
@@ -8098,14 +8864,18 @@
         <v>0.8</v>
       </c>
       <c r="I192" s="23">
-        <v>214.94900149228218</v>
-      </c>
-      <c r="J192" s="23">
+        <v>304.51782258915591</v>
+      </c>
+      <c r="J192" s="7">
+        <f>((H192/(1-0.1*K192))-H192)*1000*C192</f>
+        <v>20171.009517865496</v>
+      </c>
+      <c r="K192" s="23">
         <v>3.5910000000000002</v>
       </c>
-      <c r="L192" s="24"/>
-    </row>
-    <row r="193" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M192" s="24"/>
+    </row>
+    <row r="193" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="21" t="s">
         <v>315</v>
       </c>
@@ -8131,14 +8901,18 @@
         <v>0.77</v>
       </c>
       <c r="I193" s="23">
-        <v>366.32859021792177</v>
-      </c>
-      <c r="J193" s="23">
+        <v>574.53641054309719</v>
+      </c>
+      <c r="J193" s="7">
+        <f>((H193/(1-0.1*K193))-H193)*1000*C193</f>
+        <v>23397.668548654936</v>
+      </c>
+      <c r="K193" s="23">
         <v>3.9780000000000002</v>
       </c>
-      <c r="L193" s="24"/>
-    </row>
-    <row r="194" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M193" s="24"/>
+    </row>
+    <row r="194" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="21" t="s">
         <v>267</v>
       </c>
@@ -8164,14 +8938,18 @@
         <v>0.74</v>
       </c>
       <c r="I194" s="23">
-        <v>1116.010798349517</v>
-      </c>
-      <c r="J194" s="23">
+        <v>572.41958149200616</v>
+      </c>
+      <c r="J194" s="7">
+        <f>((H194/(1-0.1*K194))-H194)*1000*C194</f>
+        <v>34995.361050328233</v>
+      </c>
+      <c r="K194" s="23">
         <v>3.6019999999999999</v>
       </c>
-      <c r="L194" s="24"/>
-    </row>
-    <row r="195" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M194" s="24"/>
+    </row>
+    <row r="195" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="21" t="s">
         <v>48</v>
       </c>
@@ -8197,14 +8975,18 @@
         <v>0.9</v>
       </c>
       <c r="I195" s="23">
-        <v>952.81770420305145</v>
-      </c>
-      <c r="J195" s="23">
+        <v>374.73703622192346</v>
+      </c>
+      <c r="J195" s="7">
+        <f>((H195/(1-0.1*K195))-H195)*1000*C195</f>
+        <v>23652.342909817173</v>
+      </c>
+      <c r="K195" s="23">
         <v>3.4910000000000001</v>
       </c>
-      <c r="L195" s="24"/>
-    </row>
-    <row r="196" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M195" s="24"/>
+    </row>
+    <row r="196" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>57</v>
       </c>
@@ -8230,13 +9012,17 @@
         <v>0.5</v>
       </c>
       <c r="I196" s="7">
-        <v>729.86664747127338</v>
+        <v>278.20512515946081</v>
       </c>
       <c r="J196" s="7">
+        <f>((H196/(1-0.1*K196))-H196)*1000*C196</f>
+        <v>17634.169577643701</v>
+      </c>
+      <c r="K196" s="7">
         <v>3.702</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>58</v>
       </c>
@@ -8262,13 +9048,17 @@
         <v>0.86</v>
       </c>
       <c r="I197" s="7">
-        <v>685.87211115708044</v>
+        <v>1805.3560806343448</v>
       </c>
       <c r="J197" s="7">
+        <f>((H197/(1-0.1*K197))-H197)*1000*C197</f>
+        <v>45247.984009137668</v>
+      </c>
+      <c r="K197" s="7">
         <v>2.996</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>60</v>
       </c>
@@ -8294,13 +9084,17 @@
         <v>0.79</v>
       </c>
       <c r="I198" s="7">
-        <v>304.51782258915591</v>
+        <v>1941.5514060593946</v>
       </c>
       <c r="J198" s="7">
+        <f>((H198/(1-0.1*K198))-H198)*1000*C198</f>
+        <v>50490.649725671377</v>
+      </c>
+      <c r="K198" s="7">
         <v>3.0739999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>65</v>
       </c>
@@ -8326,13 +9120,17 @@
         <v>0.49</v>
       </c>
       <c r="I199" s="7">
-        <v>537.92927792278624</v>
+        <v>512.60967540732679</v>
       </c>
       <c r="J199" s="7">
+        <f>((H199/(1-0.1*K199))-H199)*1000*C199</f>
+        <v>24229.479872734813</v>
+      </c>
+      <c r="K199" s="7">
         <v>2.7709999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>69</v>
       </c>
@@ -8358,13 +9156,17 @@
         <v>0.62</v>
       </c>
       <c r="I200" s="7">
-        <v>489.76107968513463</v>
+        <v>945.7569162846404</v>
       </c>
       <c r="J200" s="7">
+        <f>((H200/(1-0.1*K200))-H200)*1000*C200</f>
+        <v>29687.571660356945</v>
+      </c>
+      <c r="K200" s="7">
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>73</v>
       </c>
@@ -8390,13 +9192,17 @@
         <v>0.66</v>
       </c>
       <c r="I201" s="7">
-        <v>1233.5667178959197</v>
+        <v>311.69537700642081</v>
       </c>
       <c r="J201" s="7">
+        <f>((H201/(1-0.1*K201))-H201)*1000*C201</f>
+        <v>6662.1029927204072</v>
+      </c>
+      <c r="K201" s="7">
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>75</v>
       </c>
@@ -8422,13 +9228,17 @@
         <v>0.52</v>
       </c>
       <c r="I202" s="7">
-        <v>1941.5514060593946</v>
+        <v>380.18918105560238</v>
       </c>
       <c r="J202" s="7">
+        <f>((H202/(1-0.1*K202))-H202)*1000*C202</f>
+        <v>20146.976744186046</v>
+      </c>
+      <c r="K202" s="7">
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>18</v>
       </c>
@@ -8454,13 +9264,17 @@
         <v>0.75</v>
       </c>
       <c r="I203" s="7">
-        <v>572.41958149200616</v>
+        <v>729.86664747127338</v>
       </c>
       <c r="J203" s="7">
+        <f>((H203/(1-0.1*K203))-H203)*1000*C203</f>
+        <v>47383.605556403607</v>
+      </c>
+      <c r="K203" s="7">
         <v>3.4489999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>138</v>
       </c>
@@ -8486,13 +9300,17 @@
         <v>0.63</v>
       </c>
       <c r="I204" s="7">
-        <v>1539.5602205003474</v>
+        <v>340.86692627894433</v>
       </c>
       <c r="J204" s="7">
+        <f>((H204/(1-0.1*K204))-H204)*1000*C204</f>
+        <v>16374.465592972181</v>
+      </c>
+      <c r="K204" s="7">
         <v>3.17</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>140</v>
       </c>
@@ -8518,13 +9336,17 @@
         <v>0.87</v>
       </c>
       <c r="I205" s="7">
-        <v>574.53641054309719</v>
+        <v>2332.879809826562</v>
       </c>
       <c r="J205" s="7">
+        <f>((H205/(1-0.1*K205))-H205)*1000*C205</f>
+        <v>68561.612903225803</v>
+      </c>
+      <c r="K205" s="7">
         <v>3.49</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>143</v>
       </c>
@@ -8550,13 +9372,17 @@
         <v>0.49</v>
       </c>
       <c r="I206" s="7">
-        <v>858.06371676798585</v>
+        <v>849.80788761576957</v>
       </c>
       <c r="J206" s="7">
+        <f>((H206/(1-0.1*K206))-H206)*1000*C206</f>
+        <v>28578.005306695795</v>
+      </c>
+      <c r="K206" s="7">
         <v>3.593</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>144</v>
       </c>
@@ -8582,13 +9408,17 @@
         <v>0.89</v>
       </c>
       <c r="I207" s="7">
-        <v>1385.8476649556362</v>
+        <v>2176.4192452078901</v>
       </c>
       <c r="J207" s="7">
+        <f>((H207/(1-0.1*K207))-H207)*1000*C207</f>
+        <v>65107.889246817009</v>
+      </c>
+      <c r="K207" s="7">
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>24</v>
       </c>
@@ -8614,13 +9444,17 @@
         <v>0.85</v>
       </c>
       <c r="I208" s="7">
-        <v>538.71533972461646</v>
+        <v>420.70360547964168</v>
       </c>
       <c r="J208" s="7">
+        <f>((H208/(1-0.1*K208))-H208)*1000*C208</f>
+        <v>17886.669542709238</v>
+      </c>
+      <c r="K208" s="7">
         <v>4.2050000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>147</v>
       </c>
@@ -8646,13 +9480,17 @@
         <v>0.72</v>
       </c>
       <c r="I209" s="7">
-        <v>881.14382324180542</v>
+        <v>416.03458715249974</v>
       </c>
       <c r="J209" s="7">
+        <f>((H209/(1-0.1*K209))-H209)*1000*C209</f>
+        <v>23788.885586924222</v>
+      </c>
+      <c r="K209" s="7">
         <v>3.27</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>164</v>
       </c>
@@ -8678,13 +9516,17 @@
         <v>0.39</v>
       </c>
       <c r="I210" s="7">
-        <v>420.70360547964168</v>
+        <v>294.70476000652002</v>
       </c>
       <c r="J210" s="7">
+        <f>((H210/(1-0.1*K210))-H210)*1000*C210</f>
+        <v>11281.37332280979</v>
+      </c>
+      <c r="K210" s="7">
         <v>3.665</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>171</v>
       </c>
@@ -8710,13 +9552,17 @@
         <v>0.71</v>
       </c>
       <c r="I211" s="7">
-        <v>1805.3560806343448</v>
+        <v>375.64650533902477</v>
       </c>
       <c r="J211" s="7">
+        <f>((H211/(1-0.1*K211))-H211)*1000*C211</f>
+        <v>9907.0533642691407</v>
+      </c>
+      <c r="K211" s="7">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>202</v>
       </c>
@@ -8742,13 +9588,17 @@
         <v>0.78</v>
       </c>
       <c r="I212" s="7">
-        <v>1169.7205948837652</v>
+        <v>1233.5667178959197</v>
       </c>
       <c r="J212" s="7">
+        <f>((H212/(1-0.1*K212))-H212)*1000*C212</f>
+        <v>53340.463320463336</v>
+      </c>
+      <c r="K212" s="7">
         <v>3.266</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>204</v>
       </c>
@@ -8774,13 +9624,17 @@
         <v>0.88</v>
       </c>
       <c r="I213" s="7">
-        <v>2332.879809826562</v>
+        <v>1042.2976633296289</v>
       </c>
       <c r="J213" s="7">
+        <f>((H213/(1-0.1*K213))-H213)*1000*C213</f>
+        <v>27187.731244350714</v>
+      </c>
+      <c r="K213" s="7">
         <v>3.3620000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>206</v>
       </c>
@@ -8806,13 +9660,17 @@
         <v>0.65</v>
       </c>
       <c r="I214" s="7">
-        <v>1042.2976633296289</v>
+        <v>1105.6367442669969</v>
       </c>
       <c r="J214" s="7">
+        <f>((H214/(1-0.1*K214))-H214)*1000*C214</f>
+        <v>36635.672514619895</v>
+      </c>
+      <c r="K214" s="7">
         <v>3.16</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>212</v>
       </c>
@@ -8838,13 +9696,17 @@
         <v>0.67</v>
       </c>
       <c r="I215" s="7">
-        <v>884.39092782200396</v>
+        <v>256.41894137771624</v>
       </c>
       <c r="J215" s="7">
+        <f>((H215/(1-0.1*K215))-H215)*1000*C215</f>
+        <v>20738.860569715136</v>
+      </c>
+      <c r="K215" s="7">
         <v>3.33</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>219</v>
       </c>
@@ -8870,13 +9732,17 @@
         <v>0.42</v>
       </c>
       <c r="I216" s="7">
-        <v>680.92944179829738</v>
+        <v>298.80584546079984</v>
       </c>
       <c r="J216" s="7">
+        <f>((H216/(1-0.1*K216))-H216)*1000*C216</f>
+        <v>18337.726218097454</v>
+      </c>
+      <c r="K216" s="7">
         <v>3.1040000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>249</v>
       </c>
@@ -8902,13 +9768,17 @@
         <v>0.37</v>
       </c>
       <c r="I217" s="7">
-        <v>2176.4192452078901</v>
+        <v>305.8806729252733</v>
       </c>
       <c r="J217" s="7">
+        <f>((H217/(1-0.1*K217))-H217)*1000*C217</f>
+        <v>18406.188315371517</v>
+      </c>
+      <c r="K217" s="7">
         <v>2.948</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>254</v>
       </c>
@@ -8934,13 +9804,17 @@
         <v>0.7</v>
       </c>
       <c r="I218" s="7">
-        <v>374.73703622192346</v>
+        <v>806.18171082415665</v>
       </c>
       <c r="J218" s="7">
+        <f>((H218/(1-0.1*K218))-H218)*1000*C218</f>
+        <v>32340.502918724753</v>
+      </c>
+      <c r="K218" s="7">
         <v>3.319</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>52</v>
       </c>
@@ -8966,13 +9840,17 @@
         <v>0.89</v>
       </c>
       <c r="I219" s="7">
-        <v>217.69265293831509</v>
+        <v>770.40897985233153</v>
       </c>
       <c r="J219" s="7">
+        <f>((H219/(1-0.1*K219))-H219)*1000*C219</f>
+        <v>30333.73211609212</v>
+      </c>
+      <c r="K219" s="7">
         <v>2.661</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>16</v>
       </c>
@@ -9001,10 +9879,14 @@
         <v>275.88055877873694</v>
       </c>
       <c r="J220" s="7">
+        <f>((H220/(1-0.1*K220))-H220)*1000*C220</f>
+        <v>16316.444981862156</v>
+      </c>
+      <c r="K220" s="7">
         <v>3.3839999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>68</v>
       </c>
@@ -9030,13 +9912,17 @@
         <v>0.37</v>
       </c>
       <c r="I221" s="7">
-        <v>322.55225889569749</v>
+        <v>591.49622478262052</v>
       </c>
       <c r="J221" s="7">
+        <f>((H221/(1-0.1*K221))-H221)*1000*C221</f>
+        <v>26962.421972534328</v>
+      </c>
+      <c r="K221" s="7">
         <v>3.5920000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>70</v>
       </c>
@@ -9062,13 +9948,17 @@
         <v>0.83</v>
       </c>
       <c r="I222" s="7">
-        <v>667.77854615426736</v>
+        <v>763.13438962867065</v>
       </c>
       <c r="J222" s="7">
+        <f>((H222/(1-0.1*K222))-H222)*1000*C222</f>
+        <v>29343.636998742499</v>
+      </c>
+      <c r="K222" s="7">
         <v>2.843</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>71</v>
       </c>
@@ -9094,13 +9984,17 @@
         <v>0.61</v>
       </c>
       <c r="I223" s="7">
-        <v>454.35820989806928</v>
+        <v>217.69265293831509</v>
       </c>
       <c r="J223" s="7">
+        <f>((H223/(1-0.1*K223))-H223)*1000*C223</f>
+        <v>21862.868709318944</v>
+      </c>
+      <c r="K223" s="7">
         <v>3.7010000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>76</v>
       </c>
@@ -9126,13 +10020,17 @@
         <v>0.89</v>
       </c>
       <c r="I224" s="7">
-        <v>697.51678177162341</v>
+        <v>322.55225889569749</v>
       </c>
       <c r="J224" s="7">
+        <f>((H224/(1-0.1*K224))-H224)*1000*C224</f>
+        <v>27987.375794103293</v>
+      </c>
+      <c r="K224" s="7">
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>88</v>
       </c>
@@ -9158,13 +10056,17 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I225" s="7">
-        <v>443.83458881577741</v>
+        <v>667.77854615426736</v>
       </c>
       <c r="J225" s="7">
+        <f>((H225/(1-0.1*K225))-H225)*1000*C225</f>
+        <v>42969.230769230773</v>
+      </c>
+      <c r="K225" s="7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>98</v>
       </c>
@@ -9190,13 +10092,17 @@
         <v>0.51</v>
       </c>
       <c r="I226" s="7">
-        <v>652.85240234051184</v>
+        <v>454.35820989806928</v>
       </c>
       <c r="J226" s="7">
+        <f>((H226/(1-0.1*K226))-H226)*1000*C226</f>
+        <v>33744.686346863469</v>
+      </c>
+      <c r="K226" s="7">
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>107</v>
       </c>
@@ -9222,13 +10128,17 @@
         <v>0.88</v>
       </c>
       <c r="I227" s="7">
-        <v>611.83724564467036</v>
+        <v>697.51678177162341</v>
       </c>
       <c r="J227" s="7">
+        <f>((H227/(1-0.1*K227))-H227)*1000*C227</f>
+        <v>32826.685075245077</v>
+      </c>
+      <c r="K227" s="7">
         <v>2.7570000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>120</v>
       </c>
@@ -9254,13 +10164,17 @@
         <v>0.59</v>
       </c>
       <c r="I228" s="7">
-        <v>494.51237984268209</v>
+        <v>443.83458881577741</v>
       </c>
       <c r="J228" s="7">
+        <f>((H228/(1-0.1*K228))-H228)*1000*C228</f>
+        <v>32548.029522828696</v>
+      </c>
+      <c r="K228" s="7">
         <v>4.1740000000000004</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>132</v>
       </c>
@@ -9286,13 +10200,17 @@
         <v>0.36</v>
       </c>
       <c r="I229" s="7">
-        <v>1018.6217798523694</v>
+        <v>652.85240234051184</v>
       </c>
       <c r="J229" s="7">
+        <f>((H229/(1-0.1*K229))-H229)*1000*C229</f>
+        <v>36735.028700643597</v>
+      </c>
+      <c r="K229" s="7">
         <v>4.2510000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>139</v>
       </c>
@@ -9318,13 +10236,17 @@
         <v>0.86</v>
       </c>
       <c r="I230" s="7">
-        <v>947.0999687224114</v>
+        <v>494.51237984268209</v>
       </c>
       <c r="J230" s="7">
+        <f>((H230/(1-0.1*K230))-H230)*1000*C230</f>
+        <v>22591.182795698918</v>
+      </c>
+      <c r="K230" s="7">
         <v>3.49</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>25</v>
       </c>
@@ -9350,13 +10272,17 @@
         <v>0.37</v>
       </c>
       <c r="I231" s="7">
-        <v>770.40897985233153</v>
+        <v>611.83724564467036</v>
       </c>
       <c r="J231" s="7">
+        <f>((H231/(1-0.1*K231))-H231)*1000*C231</f>
+        <v>24235.960761684932</v>
+      </c>
+      <c r="K231" s="7">
         <v>3.0680000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>149</v>
       </c>
@@ -9382,13 +10308,17 @@
         <v>0.89</v>
       </c>
       <c r="I232" s="7">
-        <v>464.8802213026745</v>
+        <v>1018.6217798523694</v>
       </c>
       <c r="J232" s="7">
+        <f>((H232/(1-0.1*K232))-H232)*1000*C232</f>
+        <v>37618.908554572292</v>
+      </c>
+      <c r="K232" s="7">
         <v>3.22</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>148</v>
       </c>
@@ -9414,13 +10344,17 @@
         <v>0.72</v>
       </c>
       <c r="I233" s="7">
-        <v>44.008836082121917</v>
+        <v>947.0999687224114</v>
       </c>
       <c r="J233" s="7">
+        <f>((H233/(1-0.1*K233))-H233)*1000*C233</f>
+        <v>30965.17985611509</v>
+      </c>
+      <c r="K233" s="7">
         <v>3.05</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>155</v>
       </c>
@@ -9446,13 +10380,17 @@
         <v>0.38</v>
       </c>
       <c r="I234" s="7">
-        <v>114.60378924025194</v>
+        <v>44.008836082121917</v>
       </c>
       <c r="J234" s="7">
+        <f>((H234/(1-0.1*K234))-H234)*1000*C234</f>
+        <v>5252.4858324398811</v>
+      </c>
+      <c r="K234" s="7">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>154</v>
       </c>
@@ -9478,13 +10416,17 @@
         <v>0.44</v>
       </c>
       <c r="I235" s="7">
-        <v>404.85373895060127</v>
+        <v>464.8802213026745</v>
       </c>
       <c r="J235" s="7">
+        <f>((H235/(1-0.1*K235))-H235)*1000*C235</f>
+        <v>17687.751060820374</v>
+      </c>
+      <c r="K235" s="7">
         <v>2.93</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>160</v>
       </c>
@@ -9510,13 +10452,17 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I236" s="7">
-        <v>695.35254397071174</v>
+        <v>404.85373895060127</v>
       </c>
       <c r="J236" s="7">
+        <f>((H236/(1-0.1*K236))-H236)*1000*C236</f>
+        <v>20162.497398543186</v>
+      </c>
+      <c r="K236" s="7">
         <v>3.2730000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>29</v>
       </c>
@@ -9542,13 +10488,17 @@
         <v>0.4</v>
       </c>
       <c r="I237" s="7">
-        <v>591.49622478262052</v>
+        <v>114.60378924025194</v>
       </c>
       <c r="J237" s="7">
+        <f>((H237/(1-0.1*K237))-H237)*1000*C237</f>
+        <v>4595.5808980755528</v>
+      </c>
+      <c r="K237" s="7">
         <v>2.9849999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>170</v>
       </c>
@@ -9574,13 +10524,17 @@
         <v>0.59</v>
       </c>
       <c r="I238" s="7">
-        <v>817.8343473665517</v>
+        <v>695.35254397071174</v>
       </c>
       <c r="J238" s="7">
+        <f>((H238/(1-0.1*K238))-H238)*1000*C238</f>
+        <v>37156.927621861149</v>
+      </c>
+      <c r="K238" s="7">
         <v>3.23</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>169</v>
       </c>
@@ -9609,10 +10563,14 @@
         <v>309.94092757821392</v>
       </c>
       <c r="J239" s="7">
+        <f>((H239/(1-0.1*K239))-H239)*1000*C239</f>
+        <v>19597.883959044364</v>
+      </c>
+      <c r="K239" s="7">
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>172</v>
       </c>
@@ -9638,13 +10596,17 @@
         <v>0.83</v>
       </c>
       <c r="I240" s="7">
-        <v>676.29654220994155</v>
+        <v>817.8343473665517</v>
       </c>
       <c r="J240" s="7">
+        <f>((H240/(1-0.1*K240))-H240)*1000*C240</f>
+        <v>45263.067632850238</v>
+      </c>
+      <c r="K240" s="7">
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>173</v>
       </c>
@@ -9670,13 +10632,17 @@
         <v>0.68</v>
       </c>
       <c r="I241" s="7">
-        <v>1006.2465730963966</v>
+        <v>676.29654220994155</v>
       </c>
       <c r="J241" s="7">
+        <f>((H241/(1-0.1*K241))-H241)*1000*C241</f>
+        <v>51851.554964244162</v>
+      </c>
+      <c r="K241" s="7">
         <v>3.9870000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>184</v>
       </c>
@@ -9702,13 +10668,17 @@
         <v>0.79</v>
       </c>
       <c r="I242" s="7">
-        <v>237.33214876582531</v>
+        <v>1006.2465730963966</v>
       </c>
       <c r="J242" s="7">
+        <f>((H242/(1-0.1*K242))-H242)*1000*C242</f>
+        <v>33870.094949772953</v>
+      </c>
+      <c r="K242" s="7">
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>182</v>
       </c>
@@ -9737,10 +10707,14 @@
         <v>1071.7309031426817</v>
       </c>
       <c r="J243" s="7">
+        <f>((H243/(1-0.1*K243))-H243)*1000*C243</f>
+        <v>34653.764159163526</v>
+      </c>
+      <c r="K243" s="7">
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>185</v>
       </c>
@@ -9766,13 +10740,17 @@
         <v>0.46</v>
       </c>
       <c r="I244" s="7">
-        <v>773.57557737170737</v>
+        <v>237.33214876582531</v>
       </c>
       <c r="J244" s="7">
+        <f>((H244/(1-0.1*K244))-H244)*1000*C244</f>
+        <v>23465.402231356431</v>
+      </c>
+      <c r="K244" s="7">
         <v>3.1880000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>191</v>
       </c>
@@ -9798,13 +10776,17 @@
         <v>0.9</v>
       </c>
       <c r="I245" s="7">
-        <v>1595.9493520563362</v>
+        <v>773.57557737170737</v>
       </c>
       <c r="J245" s="7">
+        <f>((H245/(1-0.1*K245))-H245)*1000*C245</f>
+        <v>36101.19617224879</v>
+      </c>
+      <c r="K245" s="7">
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>197</v>
       </c>
@@ -9830,13 +10812,17 @@
         <v>0.82</v>
       </c>
       <c r="I246" s="7">
-        <v>728.85605886803796</v>
+        <v>1595.9493520563362</v>
       </c>
       <c r="J246" s="7">
+        <f>((H246/(1-0.1*K246))-H246)*1000*C246</f>
+        <v>54373.098222092704</v>
+      </c>
+      <c r="K246" s="7">
         <v>3.1379999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>211</v>
       </c>
@@ -9862,13 +10848,17 @@
         <v>0.89</v>
       </c>
       <c r="I247" s="7">
-        <v>295.7994075618908</v>
+        <v>728.85605886803796</v>
       </c>
       <c r="J247" s="7">
+        <f>((H247/(1-0.1*K247))-H247)*1000*C247</f>
+        <v>67999.787234042567</v>
+      </c>
+      <c r="K247" s="7">
         <v>3.42</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>218</v>
       </c>
@@ -9894,13 +10884,17 @@
         <v>0.47</v>
       </c>
       <c r="I248" s="7">
-        <v>546.89355540644885</v>
+        <v>295.7994075618908</v>
       </c>
       <c r="J248" s="7">
+        <f>((H248/(1-0.1*K248))-H248)*1000*C248</f>
+        <v>7649.01960784314</v>
+      </c>
+      <c r="K248" s="7">
         <v>2.6560000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>33</v>
       </c>
@@ -9926,13 +10920,17 @@
         <v>0.82</v>
       </c>
       <c r="I249" s="7">
-        <v>763.13438962867065</v>
+        <v>546.89355540644885</v>
       </c>
       <c r="J249" s="7">
+        <f>((H249/(1-0.1*K249))-H249)*1000*C249</f>
+        <v>37959.820022497173</v>
+      </c>
+      <c r="K249" s="7">
         <v>2.8879999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>227</v>
       </c>
@@ -9961,10 +10959,14 @@
         <v>280.76541825883862</v>
       </c>
       <c r="J250" s="7">
+        <f>((H250/(1-0.1*K250))-H250)*1000*C250</f>
+        <v>22811.018010963202</v>
+      </c>
+      <c r="K250" s="7">
         <v>3.6150000000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>240</v>
       </c>
@@ -9993,10 +10995,14 @@
         <v>1138.8605583098779</v>
       </c>
       <c r="J251" s="7">
+        <f>((H251/(1-0.1*K251))-H251)*1000*C251</f>
+        <v>34902.986198243401</v>
+      </c>
+      <c r="K251" s="7">
         <v>2.827</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>243</v>
       </c>
@@ -10025,10 +11031,14 @@
         <v>1380.6240914650973</v>
       </c>
       <c r="J252" s="7">
+        <f>((H252/(1-0.1*K252))-H252)*1000*C252</f>
+        <v>48573.188090050877</v>
+      </c>
+      <c r="K252" s="7">
         <v>3.1150000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>250</v>
       </c>
@@ -10057,10 +11067,14 @@
         <v>651.64987937443698</v>
       </c>
       <c r="J253" s="7">
+        <f>((H253/(1-0.1*K253))-H253)*1000*C253</f>
+        <v>30164.709215627809</v>
+      </c>
+      <c r="K253" s="7">
         <v>3.294</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>257</v>
       </c>
@@ -10089,10 +11103,14 @@
         <v>837.11719519205417</v>
       </c>
       <c r="J254" s="7">
+        <f>((H254/(1-0.1*K254))-H254)*1000*C254</f>
+        <v>66199.950811608462</v>
+      </c>
+      <c r="K254" s="7">
         <v>3.9009999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>265</v>
       </c>
@@ -10121,14 +11139,19 @@
         <v>183.74134497849636</v>
       </c>
       <c r="J255" s="7">
+        <f>((H255/(1-0.1*K255))-H255)*1000*C255</f>
+        <v>25089.659054358326</v>
+      </c>
+      <c r="K255" s="7">
         <v>3.782</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J256">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K255">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="23" type="noConversion"/>

--- a/docs/vitivinicola.xlsx
+++ b/docs/vitivinicola.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolina Stuardo\Desktop\Capstone\vitivinicola\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbalbontingumucio/Desktop/2020-1/CAPSTONE/Proyecto/vitivinicola/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9B3EE-A00B-4F6C-BD11-5FC4B9D1CB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080BE332-6853-BA41-B560-7CF5B5D506BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23420" windowHeight="12420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lotes" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1011,7 +1008,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1602,7 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1660,13 +1657,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2069,20 +2066,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="9" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="9" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>6.548</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>51</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>6.8230000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>79</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>6.2450000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>5.851</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>92</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>6.7229999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>95</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>99</v>
       </c>
@@ -3984,7 +3981,7 @@
         <v>5.3869999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>100</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>6.5759999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>109</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>117</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>5.9450000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>123</v>
       </c>
@@ -4844,7 +4841,7 @@
         <v>4.6820000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>134</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>5.1139999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>135</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>4.8680000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>30</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>175</v>
       </c>
@@ -5704,7 +5701,7 @@
         <v>6.8440000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>178</v>
       </c>
@@ -5919,7 +5916,7 @@
         <v>6.1580000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>190</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>5.6890000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>201</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>6.5750000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>213</v>
       </c>
@@ -6564,7 +6561,7 @@
         <v>6.5419999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>225</v>
       </c>
@@ -6779,7 +6776,7 @@
         <v>5.4749999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>231</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>244</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>6.3579999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>36</v>
       </c>
@@ -7424,7 +7421,7 @@
         <v>6.9269999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>253</v>
       </c>
@@ -7639,7 +7636,7 @@
         <v>5.9509999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>262</v>
       </c>
@@ -7854,7 +7851,7 @@
         <v>5.3520000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>263</v>
       </c>
@@ -8069,7 +8066,7 @@
         <v>5.5940000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>62</v>
       </c>
@@ -8094,7 +8091,7 @@
       <c r="H29" s="33">
         <v>0.49</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29">
         <f t="shared" si="17"/>
         <v>3.6166666666666667</v>
       </c>
@@ -8284,7 +8281,7 @@
         <v>6.819</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>67</v>
       </c>
@@ -8499,7 +8496,7 @@
         <v>5.2039999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>72</v>
       </c>
@@ -8714,7 +8711,7 @@
         <v>4.8360000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>77</v>
       </c>
@@ -8929,7 +8926,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>82</v>
       </c>
@@ -9144,7 +9141,7 @@
         <v>4.6769999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>91</v>
       </c>
@@ -9359,7 +9356,7 @@
         <v>5.2110000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>103</v>
       </c>
@@ -9574,7 +9571,7 @@
         <v>5.4379999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>101</v>
       </c>
@@ -9789,7 +9786,7 @@
         <v>5.0720000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>106</v>
       </c>
@@ -10004,7 +10001,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>104</v>
       </c>
@@ -10219,7 +10216,7 @@
         <v>4.9809999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
@@ -10434,7 +10431,7 @@
         <v>5.0069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>112</v>
       </c>
@@ -10649,7 +10646,7 @@
         <v>5.3620000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>113</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>115</v>
       </c>
@@ -11079,7 +11076,7 @@
         <v>4.3019999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>21</v>
       </c>
@@ -11294,7 +11291,7 @@
         <v>5.9790000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>118</v>
       </c>
@@ -11509,7 +11506,7 @@
         <v>6.4749999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>124</v>
       </c>
@@ -11724,7 +11721,7 @@
         <v>5.4669999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>125</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>6.3360000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>129</v>
       </c>
@@ -12154,7 +12151,7 @@
         <v>4.6980000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>137</v>
       </c>
@@ -12369,7 +12366,7 @@
         <v>6.5069999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>142</v>
       </c>
@@ -12584,7 +12581,7 @@
         <v>6.5910000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>145</v>
       </c>
@@ -12799,7 +12796,7 @@
         <v>5.335</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>156</v>
       </c>
@@ -13014,7 +13011,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>28</v>
       </c>
@@ -13229,7 +13226,7 @@
         <v>6.2990000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>193</v>
       </c>
@@ -13444,7 +13441,7 @@
         <v>5.1639999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>196</v>
       </c>
@@ -13659,7 +13656,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>195</v>
       </c>
@@ -13874,7 +13871,7 @@
         <v>6.2949999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>199</v>
       </c>
@@ -14089,7 +14086,7 @@
         <v>6.335</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>198</v>
       </c>
@@ -14304,7 +14301,7 @@
         <v>6.0670000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>209</v>
       </c>
@@ -14519,7 +14516,7 @@
         <v>6.3440000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>210</v>
       </c>
@@ -14734,7 +14731,7 @@
         <v>4.3010000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>232</v>
       </c>
@@ -14949,7 +14946,7 @@
         <v>5.6219999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>35</v>
       </c>
@@ -15164,7 +15161,7 @@
         <v>5.8250000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>258</v>
       </c>
@@ -15379,7 +15376,7 @@
         <v>4.6849999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>40</v>
       </c>
@@ -15594,7 +15591,7 @@
         <v>5.5960000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>66</v>
       </c>
@@ -15619,7 +15616,7 @@
       <c r="H64" s="33">
         <v>0.63</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64">
         <f t="shared" si="17"/>
         <v>4.1416666666666666</v>
       </c>
@@ -15809,7 +15806,7 @@
         <v>5.3460000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
         <v>81</v>
       </c>
@@ -16024,7 +16021,7 @@
         <v>5.5910000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>83</v>
       </c>
@@ -16239,7 +16236,7 @@
         <v>5.6459999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>87</v>
       </c>
@@ -16454,7 +16451,7 @@
         <v>5.4779999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>86</v>
       </c>
@@ -16669,7 +16666,7 @@
         <v>6.4390000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>102</v>
       </c>
@@ -16884,7 +16881,7 @@
         <v>5.6239999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>111</v>
       </c>
@@ -17099,7 +17096,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>114</v>
       </c>
@@ -17314,7 +17311,7 @@
         <v>6.3010000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>133</v>
       </c>
@@ -17529,7 +17526,7 @@
         <v>5.7850000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>146</v>
       </c>
@@ -17744,7 +17741,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
         <v>151</v>
       </c>
@@ -17959,7 +17956,7 @@
         <v>6.6020000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
         <v>152</v>
       </c>
@@ -18174,7 +18171,7 @@
         <v>5.6180000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>157</v>
       </c>
@@ -18389,7 +18386,7 @@
         <v>6.2939999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>23</v>
       </c>
@@ -18604,7 +18601,7 @@
         <v>5.0830000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="25" t="s">
         <v>159</v>
       </c>
@@ -18819,7 +18816,7 @@
         <v>5.1630000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>165</v>
       </c>
@@ -19034,7 +19031,7 @@
         <v>6.0270000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
         <v>167</v>
       </c>
@@ -19249,7 +19246,7 @@
         <v>6.0209999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>168</v>
       </c>
@@ -19464,7 +19461,7 @@
         <v>5.4029999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>180</v>
       </c>
@@ -19679,7 +19676,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>192</v>
       </c>
@@ -19894,7 +19891,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>203</v>
       </c>
@@ -20109,7 +20106,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
         <v>208</v>
       </c>
@@ -20324,7 +20321,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
         <v>216</v>
       </c>
@@ -20539,7 +20536,7 @@
         <v>5.609</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>224</v>
       </c>
@@ -20754,7 +20751,7 @@
         <v>5.6859999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>230</v>
       </c>
@@ -20969,7 +20966,7 @@
         <v>6.2779999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" s="25" t="s">
         <v>242</v>
       </c>
@@ -21184,7 +21181,7 @@
         <v>6.7359999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>39</v>
       </c>
@@ -21399,7 +21396,7 @@
         <v>5.9379999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>41</v>
       </c>
@@ -21614,7 +21611,7 @@
         <v>6.7249999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>42</v>
       </c>
@@ -21829,7 +21826,7 @@
         <v>4.8179999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>45</v>
       </c>
@@ -21854,7 +21851,7 @@
       <c r="H93" s="33">
         <v>0.53</v>
       </c>
-      <c r="I93" s="33">
+      <c r="I93">
         <f t="shared" si="35"/>
         <v>3.8166666666666664</v>
       </c>
@@ -22044,7 +22041,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>85</v>
       </c>
@@ -22259,7 +22256,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>90</v>
       </c>
@@ -22474,7 +22471,7 @@
         <v>5.806</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>108</v>
       </c>
@@ -22689,7 +22686,7 @@
         <v>5.3789999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>22</v>
       </c>
@@ -22904,7 +22901,7 @@
         <v>5.2859999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>119</v>
       </c>
@@ -23119,7 +23116,7 @@
         <v>5.0549999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>20</v>
       </c>
@@ -23334,7 +23331,7 @@
         <v>4.8680000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>126</v>
       </c>
@@ -23549,7 +23546,7 @@
         <v>6.6369999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>128</v>
       </c>
@@ -23764,7 +23761,7 @@
         <v>6.056</v>
       </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
         <v>131</v>
       </c>
@@ -23979,7 +23976,7 @@
         <v>6.4249999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>153</v>
       </c>
@@ -24194,7 +24191,7 @@
         <v>6.3860000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>174</v>
       </c>
@@ -24409,7 +24406,7 @@
         <v>4.6310000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>181</v>
       </c>
@@ -24624,7 +24621,7 @@
         <v>5.6829999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>200</v>
       </c>
@@ -24839,7 +24836,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>205</v>
       </c>
@@ -25054,7 +25051,7 @@
         <v>5.4870000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>223</v>
       </c>
@@ -25269,7 +25266,7 @@
         <v>5.9050000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>229</v>
       </c>
@@ -25484,7 +25481,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>234</v>
       </c>
@@ -25699,7 +25696,7 @@
         <v>5.5940000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
         <v>233</v>
       </c>
@@ -25914,7 +25911,7 @@
         <v>6.5350000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
         <v>241</v>
       </c>
@@ -26129,7 +26126,7 @@
         <v>6.2939999999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>247</v>
       </c>
@@ -26344,7 +26341,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>246</v>
       </c>
@@ -26559,7 +26556,7 @@
         <v>5.0149999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
         <v>251</v>
       </c>
@@ -26774,7 +26771,7 @@
         <v>6.0490000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
         <v>255</v>
       </c>
@@ -26989,7 +26986,7 @@
         <v>4.5629999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>266</v>
       </c>
@@ -27204,7 +27201,7 @@
         <v>4.9710000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="s">
         <v>54</v>
       </c>
@@ -27229,7 +27226,7 @@
       <c r="H118" s="33">
         <v>0.72</v>
       </c>
-      <c r="I118" s="33">
+      <c r="I118">
         <f t="shared" si="35"/>
         <v>4.166666666666667</v>
       </c>
@@ -27419,7 +27416,7 @@
         <v>6.4450000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>63</v>
       </c>
@@ -27634,7 +27631,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A120" s="25" t="s">
         <v>64</v>
       </c>
@@ -27849,7 +27846,7 @@
         <v>5.0369999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>74</v>
       </c>
@@ -28064,7 +28061,7 @@
         <v>5.0279999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>78</v>
       </c>
@@ -28279,7 +28276,7 @@
         <v>6.3680000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>89</v>
       </c>
@@ -28494,7 +28491,7 @@
         <v>5.6710000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>110</v>
       </c>
@@ -28709,7 +28706,7 @@
         <v>6.4690000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>121</v>
       </c>
@@ -28924,7 +28921,7 @@
         <v>6.6619999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>127</v>
       </c>
@@ -29139,7 +29136,7 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>141</v>
       </c>
@@ -29354,7 +29351,7 @@
         <v>5.9539999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>158</v>
       </c>
@@ -29569,7 +29566,7 @@
         <v>6.5609999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>166</v>
       </c>
@@ -29784,7 +29781,7 @@
         <v>5.9560000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>177</v>
       </c>
@@ -29999,7 +29996,7 @@
         <v>4.7709999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
         <v>183</v>
       </c>
@@ -30214,7 +30211,7 @@
         <v>4.7640000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>188</v>
       </c>
@@ -30429,7 +30426,7 @@
         <v>5.2220000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
         <v>189</v>
       </c>
@@ -30644,7 +30641,7 @@
         <v>5.4029999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A134" s="25" t="s">
         <v>194</v>
       </c>
@@ -30859,7 +30856,7 @@
         <v>6.9189999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A135" s="25" t="s">
         <v>32</v>
       </c>
@@ -31074,7 +31071,7 @@
         <v>5.5720000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A136" s="25" t="s">
         <v>215</v>
       </c>
@@ -31289,7 +31286,7 @@
         <v>4.6840000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A137" s="25" t="s">
         <v>217</v>
       </c>
@@ -31504,7 +31501,7 @@
         <v>5.8920000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A138" s="25" t="s">
         <v>220</v>
       </c>
@@ -31719,7 +31716,7 @@
         <v>4.9630000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
         <v>34</v>
       </c>
@@ -31934,7 +31931,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A140" s="25" t="s">
         <v>226</v>
       </c>
@@ -32149,7 +32146,7 @@
         <v>5.8490000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A141" s="25" t="s">
         <v>239</v>
       </c>
@@ -32364,7 +32361,7 @@
         <v>4.657</v>
       </c>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A142" s="25" t="s">
         <v>238</v>
       </c>
@@ -32579,7 +32576,7 @@
         <v>5.5469999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A143" s="25" t="s">
         <v>237</v>
       </c>
@@ -32794,7 +32791,7 @@
         <v>6.3949999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A144" s="25" t="s">
         <v>248</v>
       </c>
@@ -33009,7 +33006,7 @@
         <v>6.5579999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A145" s="25" t="s">
         <v>260</v>
       </c>
@@ -33224,7 +33221,7 @@
         <v>4.9870000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A146" s="25" t="s">
         <v>264</v>
       </c>
@@ -33439,7 +33436,7 @@
         <v>5.7880000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A147" s="31" t="s">
         <v>43</v>
       </c>
@@ -33464,7 +33461,7 @@
       <c r="H147" s="33">
         <v>0.8</v>
       </c>
-      <c r="I147" s="33">
+      <c r="I147">
         <f t="shared" si="55"/>
         <v>3.9916666666666667</v>
       </c>
@@ -33654,7 +33651,7 @@
         <v>6.6529999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A148" s="25" t="s">
         <v>44</v>
       </c>
@@ -33869,7 +33866,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A149" s="25" t="s">
         <v>47</v>
       </c>
@@ -34084,7 +34081,7 @@
         <v>5.5789999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A150" s="25" t="s">
         <v>49</v>
       </c>
@@ -34299,7 +34296,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A151" s="25" t="s">
         <v>56</v>
       </c>
@@ -34514,7 +34511,7 @@
         <v>5.7039999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A152" s="25" t="s">
         <v>55</v>
       </c>
@@ -34729,7 +34726,7 @@
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A153" s="25" t="s">
         <v>53</v>
       </c>
@@ -34944,7 +34941,7 @@
         <v>5.8470000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A154" s="25" t="s">
         <v>59</v>
       </c>
@@ -35159,7 +35156,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A155" s="25" t="s">
         <v>61</v>
       </c>
@@ -35374,7 +35371,7 @@
         <v>5.4829999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
         <v>80</v>
       </c>
@@ -35589,7 +35586,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A157" s="25" t="s">
         <v>17</v>
       </c>
@@ -35804,7 +35801,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A158" s="25" t="s">
         <v>94</v>
       </c>
@@ -36019,7 +36016,7 @@
         <v>5.734</v>
       </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A159" s="25" t="s">
         <v>93</v>
       </c>
@@ -36234,7 +36231,7 @@
         <v>5.4109999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A160" s="25" t="s">
         <v>19</v>
       </c>
@@ -36449,7 +36446,7 @@
         <v>4.9290000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" s="25" t="s">
         <v>96</v>
       </c>
@@ -36664,7 +36661,7 @@
         <v>4.2590000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" s="25" t="s">
         <v>97</v>
       </c>
@@ -36879,7 +36876,7 @@
         <v>6.6369999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" s="25" t="s">
         <v>116</v>
       </c>
@@ -37094,7 +37091,7 @@
         <v>6.0110000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" s="25" t="s">
         <v>122</v>
       </c>
@@ -37309,7 +37306,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" s="25" t="s">
         <v>130</v>
       </c>
@@ -37524,7 +37521,7 @@
         <v>5.4450000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" s="25" t="s">
         <v>136</v>
       </c>
@@ -37739,7 +37736,7 @@
         <v>4.665</v>
       </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" s="25" t="s">
         <v>150</v>
       </c>
@@ -37954,7 +37951,7 @@
         <v>7.0670000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" s="25" t="s">
         <v>161</v>
       </c>
@@ -38169,7 +38166,7 @@
         <v>5.8470000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" s="25" t="s">
         <v>162</v>
       </c>
@@ -38384,7 +38381,7 @@
         <v>5.4640000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" s="25" t="s">
         <v>163</v>
       </c>
@@ -38599,7 +38596,7 @@
         <v>6.6870000000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" s="25" t="s">
         <v>26</v>
       </c>
@@ -38814,7 +38811,7 @@
         <v>5.4550000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" s="25" t="s">
         <v>27</v>
       </c>
@@ -39029,7 +39026,7 @@
         <v>7.0330000000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" s="25" t="s">
         <v>179</v>
       </c>
@@ -39244,7 +39241,7 @@
         <v>5.0510000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" s="25" t="s">
         <v>176</v>
       </c>
@@ -39459,7 +39456,7 @@
         <v>5.1619999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" s="25" t="s">
         <v>31</v>
       </c>
@@ -39674,7 +39671,7 @@
         <v>5.3520000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" s="25" t="s">
         <v>187</v>
       </c>
@@ -39889,7 +39886,7 @@
         <v>5.4489999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A177" s="25" t="s">
         <v>186</v>
       </c>
@@ -40104,7 +40101,7 @@
         <v>6.649</v>
       </c>
     </row>
-    <row r="178" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A178" s="25" t="s">
         <v>207</v>
       </c>
@@ -40319,7 +40316,7 @@
         <v>5.3550000000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A179" s="25" t="s">
         <v>214</v>
       </c>
@@ -40534,7 +40531,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A180" s="25" t="s">
         <v>221</v>
       </c>
@@ -40749,7 +40746,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A181" s="25" t="s">
         <v>222</v>
       </c>
@@ -40964,7 +40961,7 @@
         <v>6.0369999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A182" s="25" t="s">
         <v>228</v>
       </c>
@@ -41179,7 +41176,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="183" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A183" s="25" t="s">
         <v>321</v>
       </c>
@@ -41394,7 +41391,7 @@
         <v>5.1059999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A184" s="25" t="s">
         <v>236</v>
       </c>
@@ -41609,7 +41606,7 @@
         <v>4.7220000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A185" s="25" t="s">
         <v>235</v>
       </c>
@@ -41824,7 +41821,7 @@
         <v>6.008</v>
       </c>
     </row>
-    <row r="186" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A186" s="25" t="s">
         <v>245</v>
       </c>
@@ -42039,7 +42036,7 @@
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A187" s="25" t="s">
         <v>252</v>
       </c>
@@ -42254,7 +42251,7 @@
         <v>4.8369999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A188" s="25" t="s">
         <v>256</v>
       </c>
@@ -42469,7 +42466,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="189" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A189" s="25" t="s">
         <v>259</v>
       </c>
@@ -42684,7 +42681,7 @@
         <v>5.2590000000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A190" s="25" t="s">
         <v>38</v>
       </c>
@@ -42899,7 +42896,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="191" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A191" s="25" t="s">
         <v>261</v>
       </c>
@@ -43114,7 +43111,7 @@
         <v>6.992</v>
       </c>
     </row>
-    <row r="192" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A192" s="25" t="s">
         <v>37</v>
       </c>
@@ -43329,7 +43326,7 @@
         <v>6.3070000000000004</v>
       </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A193" s="25" t="s">
         <v>322</v>
       </c>
@@ -43544,7 +43541,7 @@
         <v>6.9740000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A194" s="25" t="s">
         <v>267</v>
       </c>
@@ -43759,7 +43756,7 @@
         <v>5.4870000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A195" s="31" t="s">
         <v>48</v>
       </c>
@@ -43784,7 +43781,7 @@
       <c r="H195" s="33">
         <v>0.9</v>
       </c>
-      <c r="I195" s="33">
+      <c r="I195">
         <f t="shared" ref="I195:I255" si="74">G195/40+3+1/6</f>
         <v>3.7166666666666663</v>
       </c>
@@ -43974,7 +43971,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A196" s="25" t="s">
         <v>57</v>
       </c>
@@ -44189,7 +44186,7 @@
         <v>6.7050000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A197" s="25" t="s">
         <v>58</v>
       </c>
@@ -44404,7 +44401,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A198" s="25" t="s">
         <v>60</v>
       </c>
@@ -44619,7 +44616,7 @@
         <v>5.2919999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A199" s="25" t="s">
         <v>65</v>
       </c>
@@ -44834,7 +44831,7 @@
         <v>4.6420000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A200" s="25" t="s">
         <v>69</v>
       </c>
@@ -45049,7 +45046,7 @@
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A201" s="25" t="s">
         <v>73</v>
       </c>
@@ -45264,7 +45261,7 @@
         <v>4.3860000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A202" s="25" t="s">
         <v>75</v>
       </c>
@@ -45479,7 +45476,7 @@
         <v>6.1740000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A203" s="25" t="s">
         <v>18</v>
       </c>
@@ -45694,7 +45691,7 @@
         <v>6.3360000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A204" s="25" t="s">
         <v>138</v>
       </c>
@@ -45909,7 +45906,7 @@
         <v>5.9089999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A205" s="25" t="s">
         <v>140</v>
       </c>
@@ -46124,7 +46121,7 @@
         <v>6.3220000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A206" s="25" t="s">
         <v>143</v>
       </c>
@@ -46339,7 +46336,7 @@
         <v>5.8360000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A207" s="25" t="s">
         <v>144</v>
       </c>
@@ -46554,7 +46551,7 @@
         <v>5.9420000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A208" s="25" t="s">
         <v>24</v>
       </c>
@@ -46769,7 +46766,7 @@
         <v>7.0970000000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A209" s="25" t="s">
         <v>147</v>
       </c>
@@ -46984,7 +46981,7 @@
         <v>5.1470000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A210" s="25" t="s">
         <v>164</v>
       </c>
@@ -47199,7 +47196,7 @@
         <v>5.5060000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A211" s="25" t="s">
         <v>171</v>
       </c>
@@ -47414,7 +47411,7 @@
         <v>5.3120000000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A212" s="25" t="s">
         <v>202</v>
       </c>
@@ -47629,7 +47626,7 @@
         <v>5.0590000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A213" s="25" t="s">
         <v>204</v>
       </c>
@@ -47844,7 +47841,7 @@
         <v>6.1150000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
         <v>206</v>
       </c>
@@ -48059,7 +48056,7 @@
         <v>5.7350000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
         <v>212</v>
       </c>
@@ -48274,7 +48271,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="216" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
         <v>219</v>
       </c>
@@ -48489,7 +48486,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="217" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
         <v>249</v>
       </c>
@@ -48704,7 +48701,7 @@
         <v>4.7670000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
         <v>254</v>
       </c>
@@ -48919,7 +48916,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="219" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
         <v>52</v>
       </c>
@@ -49134,7 +49131,7 @@
         <v>4.5330000000000004</v>
       </c>
     </row>
-    <row r="220" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A220" s="31" t="s">
         <v>16</v>
       </c>
@@ -49159,7 +49156,7 @@
       <c r="H220" s="33">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I220" s="33">
+      <c r="I220">
         <f t="shared" si="74"/>
         <v>3.9416666666666664</v>
       </c>
@@ -49349,7 +49346,7 @@
         <v>6.0209999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
         <v>68</v>
       </c>
@@ -49564,7 +49561,7 @@
         <v>5.6070000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
         <v>70</v>
       </c>
@@ -49779,7 +49776,7 @@
         <v>4.8280000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
         <v>71</v>
       </c>
@@ -49994,7 +49991,7 @@
         <v>6.5819999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
         <v>76</v>
       </c>
@@ -50209,7 +50206,7 @@
         <v>7.0030000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
         <v>88</v>
       </c>
@@ -50424,7 +50421,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
         <v>98</v>
       </c>
@@ -50639,7 +50636,7 @@
         <v>5.5460000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
         <v>107</v>
       </c>
@@ -50854,7 +50851,7 @@
         <v>4.6219999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
         <v>120</v>
       </c>
@@ -51069,7 +51066,7 @@
         <v>6.7690000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A229" s="25" t="s">
         <v>132</v>
       </c>
@@ -51284,7 +51281,7 @@
         <v>7.0830000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A230" s="25" t="s">
         <v>139</v>
       </c>
@@ -51499,7 +51496,7 @@
         <v>6.5590000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A231" s="25" t="s">
         <v>25</v>
       </c>
@@ -51714,7 +51711,7 @@
         <v>4.8929999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A232" s="25" t="s">
         <v>149</v>
       </c>
@@ -51929,7 +51926,7 @@
         <v>5.665</v>
       </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A233" s="25" t="s">
         <v>148</v>
       </c>
@@ -52144,7 +52141,7 @@
         <v>5.0869999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A234" s="25" t="s">
         <v>155</v>
       </c>
@@ -52359,7 +52356,7 @@
         <v>6.4980000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A235" s="25" t="s">
         <v>154</v>
       </c>
@@ -52574,7 +52571,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A236" s="25" t="s">
         <v>160</v>
       </c>
@@ -52789,7 +52786,7 @@
         <v>6.077</v>
       </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A237" s="25" t="s">
         <v>29</v>
       </c>
@@ -53004,7 +53001,7 @@
         <v>4.681</v>
       </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A238" s="25" t="s">
         <v>170</v>
       </c>
@@ -53219,7 +53216,7 @@
         <v>6.0110000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A239" s="25" t="s">
         <v>169</v>
       </c>
@@ -53434,7 +53431,7 @@
         <v>6.8639999999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A240" s="25" t="s">
         <v>172</v>
       </c>
@@ -53649,7 +53646,7 @@
         <v>5.7930000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A241" s="25" t="s">
         <v>173</v>
       </c>
@@ -53864,7 +53861,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A242" s="25" t="s">
         <v>184</v>
       </c>
@@ -54079,7 +54076,7 @@
         <v>4.6529999999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A243" s="25" t="s">
         <v>182</v>
       </c>
@@ -54294,7 +54291,7 @@
         <v>5.0819999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A244" s="25" t="s">
         <v>185</v>
       </c>
@@ -54509,7 +54506,7 @@
         <v>5.7229999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A245" s="25" t="s">
         <v>191</v>
       </c>
@@ -54724,7 +54721,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A246" s="25" t="s">
         <v>197</v>
       </c>
@@ -54939,7 +54936,7 @@
         <v>5.6390000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A247" s="25" t="s">
         <v>211</v>
       </c>
@@ -55154,7 +55151,7 @@
         <v>5.8810000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A248" s="25" t="s">
         <v>218</v>
       </c>
@@ -55369,7 +55366,7 @@
         <v>4.6180000000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A249" s="25" t="s">
         <v>33</v>
       </c>
@@ -55584,7 +55581,7 @@
         <v>5.0069999999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A250" s="25" t="s">
         <v>227</v>
       </c>
@@ -55799,7 +55796,7 @@
         <v>6.476</v>
       </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A251" s="25" t="s">
         <v>240</v>
       </c>
@@ -56014,7 +56011,7 @@
         <v>4.3710000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A252" s="25" t="s">
         <v>243</v>
       </c>
@@ -56229,7 +56226,7 @@
         <v>4.7869999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A253" s="25" t="s">
         <v>250</v>
       </c>
@@ -56444,7 +56441,7 @@
         <v>6.2119999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A254" s="25" t="s">
         <v>257</v>
       </c>
@@ -56659,7 +56656,7 @@
         <v>6.8579999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A255" s="25" t="s">
         <v>265</v>
       </c>
@@ -56874,14 +56871,14 @@
         <v>6.0090000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:60" ht="19" x14ac:dyDescent="0.25">
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
       <c r="L256" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS256">
+  <sortState ref="A2:AS256">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="23" type="noConversion"/>
@@ -56898,9 +56895,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>268</v>
       </c>
@@ -56923,7 +56920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -56946,7 +56943,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -56969,7 +56966,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -56992,7 +56989,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -57015,7 +57012,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -57038,7 +57035,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -57061,7 +57058,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -57084,7 +57081,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -57120,12 +57117,12 @@
       <selection activeCell="G11" sqref="F2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>290</v>
       </c>
@@ -57143,7 +57140,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>283</v>
       </c>
@@ -57160,7 +57157,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>284</v>
       </c>
@@ -57177,7 +57174,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>285</v>
       </c>
@@ -57194,7 +57191,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>286</v>
       </c>
@@ -57211,7 +57208,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>287</v>
       </c>
@@ -57228,7 +57225,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -57248,9 +57245,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -57282,7 +57279,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>283</v>
       </c>
@@ -57314,7 +57311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>283</v>
       </c>
@@ -57346,7 +57343,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>284</v>
       </c>
@@ -57378,7 +57375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>284</v>
       </c>
@@ -57410,7 +57407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>284</v>
       </c>
@@ -57442,7 +57439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>285</v>
       </c>
@@ -57474,7 +57471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>286</v>
       </c>
@@ -57506,7 +57503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>286</v>
       </c>
@@ -57538,7 +57535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>287</v>
       </c>
@@ -57570,7 +57567,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>287</v>
       </c>
@@ -57611,13 +57608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A51C7-8312-4C85-9A6F-2320E7693905}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>296</v>
       </c>
@@ -57631,7 +57628,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>300</v>
       </c>
@@ -57639,13 +57636,14 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>200</v>
+        <f>C2*B2</f>
+        <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>301</v>
       </c>
@@ -57653,13 +57651,14 @@
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>150</v>
+        <f t="shared" ref="D3:D4" si="0">C3*B3</f>
+        <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>302</v>
       </c>
@@ -57667,10 +57666,11 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>225</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -57687,13 +57687,13 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>303</v>
       </c>
@@ -57713,7 +57713,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>309</v>
       </c>
@@ -57733,7 +57733,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>310</v>
       </c>
@@ -57753,7 +57753,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>311</v>
       </c>
@@ -57773,7 +57773,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>312</v>
       </c>
@@ -57783,7 +57783,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>313</v>
       </c>
@@ -57803,7 +57803,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="17"/>
     </row>
   </sheetData>
